--- a/pronto/jogos.xlsx
+++ b/pronto/jogos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>n1</t>
   </si>
@@ -785,6 +785,36 @@
   </si>
   <si>
     <t>jogo242</t>
+  </si>
+  <si>
+    <t>jogo243</t>
+  </si>
+  <si>
+    <t>jogo244</t>
+  </si>
+  <si>
+    <t>jogo245</t>
+  </si>
+  <si>
+    <t>jogo246</t>
+  </si>
+  <si>
+    <t>jogo247</t>
+  </si>
+  <si>
+    <t>jogo248</t>
+  </si>
+  <si>
+    <t>jogo249</t>
+  </si>
+  <si>
+    <t>jogo250</t>
+  </si>
+  <si>
+    <t>jogo251</t>
+  </si>
+  <si>
+    <t>jogo252</t>
   </si>
 </sst>
 </file>
@@ -792,9 +822,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
@@ -827,119 +857,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -965,7 +882,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,7 +1010,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,31 +1100,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,25 +1148,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,19 +1166,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,85 +1184,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,6 +1201,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1234,188 +1297,155 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1745,10 +1775,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P243"/>
+  <dimension ref="A1:P253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241:A243"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7494,6 +7524,266 @@
         <v>59</v>
       </c>
     </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>4</v>
+      </c>
+      <c r="D244">
+        <v>12</v>
+      </c>
+      <c r="E244">
+        <v>28</v>
+      </c>
+      <c r="F244">
+        <v>36</v>
+      </c>
+      <c r="G244">
+        <v>38</v>
+      </c>
+      <c r="H244">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B245">
+        <v>4</v>
+      </c>
+      <c r="C245">
+        <v>6</v>
+      </c>
+      <c r="D245">
+        <v>12</v>
+      </c>
+      <c r="E245">
+        <v>27</v>
+      </c>
+      <c r="F245">
+        <v>31</v>
+      </c>
+      <c r="G245">
+        <v>42</v>
+      </c>
+      <c r="H245">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>7</v>
+      </c>
+      <c r="D246">
+        <v>27</v>
+      </c>
+      <c r="E246">
+        <v>38</v>
+      </c>
+      <c r="F246">
+        <v>48</v>
+      </c>
+      <c r="G246">
+        <v>52</v>
+      </c>
+      <c r="H246">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B247">
+        <v>6</v>
+      </c>
+      <c r="C247">
+        <v>14</v>
+      </c>
+      <c r="D247">
+        <v>24</v>
+      </c>
+      <c r="E247">
+        <v>30</v>
+      </c>
+      <c r="F247">
+        <v>37</v>
+      </c>
+      <c r="G247">
+        <v>54</v>
+      </c>
+      <c r="H247">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B248">
+        <v>15</v>
+      </c>
+      <c r="C248">
+        <v>24</v>
+      </c>
+      <c r="D248">
+        <v>32</v>
+      </c>
+      <c r="E248">
+        <v>35</v>
+      </c>
+      <c r="F248">
+        <v>41</v>
+      </c>
+      <c r="G248">
+        <v>45</v>
+      </c>
+      <c r="H248">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+      <c r="C249">
+        <v>18</v>
+      </c>
+      <c r="D249">
+        <v>20</v>
+      </c>
+      <c r="E249">
+        <v>26</v>
+      </c>
+      <c r="F249">
+        <v>40</v>
+      </c>
+      <c r="G249">
+        <v>53</v>
+      </c>
+      <c r="H249">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>14</v>
+      </c>
+      <c r="D250">
+        <v>29</v>
+      </c>
+      <c r="E250">
+        <v>41</v>
+      </c>
+      <c r="F250">
+        <v>50</v>
+      </c>
+      <c r="G250">
+        <v>52</v>
+      </c>
+      <c r="H250">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B251">
+        <v>6</v>
+      </c>
+      <c r="C251">
+        <v>7</v>
+      </c>
+      <c r="D251">
+        <v>24</v>
+      </c>
+      <c r="E251">
+        <v>25</v>
+      </c>
+      <c r="F251">
+        <v>30</v>
+      </c>
+      <c r="G251">
+        <v>34</v>
+      </c>
+      <c r="H251">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B252">
+        <v>22</v>
+      </c>
+      <c r="C252">
+        <v>26</v>
+      </c>
+      <c r="D252">
+        <v>27</v>
+      </c>
+      <c r="E252">
+        <v>44</v>
+      </c>
+      <c r="F252">
+        <v>47</v>
+      </c>
+      <c r="G252">
+        <v>49</v>
+      </c>
+      <c r="H252">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B253">
+        <v>13</v>
+      </c>
+      <c r="C253">
+        <v>14</v>
+      </c>
+      <c r="D253">
+        <v>22</v>
+      </c>
+      <c r="E253">
+        <v>33</v>
+      </c>
+      <c r="F253">
+        <v>40</v>
+      </c>
+      <c r="G253">
+        <v>49</v>
+      </c>
+      <c r="H253">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/pronto/jogos.xlsx
+++ b/pronto/jogos.xlsx
@@ -397,34 +397,34 @@
     <t>jogo112</t>
   </si>
   <si>
-    <t>jogo113</t>
-  </si>
-  <si>
-    <t>jogo114</t>
-  </si>
-  <si>
-    <t>jogo115</t>
-  </si>
-  <si>
-    <t>jogo116</t>
-  </si>
-  <si>
-    <t>jogo117</t>
-  </si>
-  <si>
-    <t>jogo118</t>
-  </si>
-  <si>
-    <t>jogo119</t>
-  </si>
-  <si>
-    <t>jogo120</t>
-  </si>
-  <si>
-    <t>jogo121</t>
-  </si>
-  <si>
-    <t>jogo122</t>
+    <t>jogo113 - Bolao 5-6</t>
+  </si>
+  <si>
+    <t>jogo114 - Bolao 5-6</t>
+  </si>
+  <si>
+    <t>jogo115 - Bolao 5-6</t>
+  </si>
+  <si>
+    <t>jogo116 - Bolao 5-6</t>
+  </si>
+  <si>
+    <t>jogo117 - Bolao 5-6</t>
+  </si>
+  <si>
+    <t>jogo118 - Bolao 5-6</t>
+  </si>
+  <si>
+    <t>jogo119 - Bolao 5-6</t>
+  </si>
+  <si>
+    <t>jogo120 - Bolao 5-6</t>
+  </si>
+  <si>
+    <t>jogo121 - Bolao 5-6</t>
+  </si>
+  <si>
+    <t>jogo122 - Bolao 5-6</t>
   </si>
   <si>
     <t>jogo123</t>
@@ -697,73 +697,73 @@
     <t>jogo212</t>
   </si>
   <si>
-    <t>jogo213</t>
-  </si>
-  <si>
-    <t>jogo214</t>
-  </si>
-  <si>
-    <t>jogo215</t>
-  </si>
-  <si>
-    <t>jogo216</t>
-  </si>
-  <si>
-    <t>jogo217</t>
-  </si>
-  <si>
-    <t>jogo218</t>
-  </si>
-  <si>
-    <t>jogo219</t>
-  </si>
-  <si>
-    <t>jogo220</t>
-  </si>
-  <si>
-    <t>jogo221</t>
-  </si>
-  <si>
-    <t>jogo222</t>
-  </si>
-  <si>
-    <t>jogo223</t>
-  </si>
-  <si>
-    <t>jogo224</t>
-  </si>
-  <si>
-    <t>jogo225</t>
-  </si>
-  <si>
-    <t>jogo226</t>
-  </si>
-  <si>
-    <t>jogo227</t>
-  </si>
-  <si>
-    <t>jogo228</t>
-  </si>
-  <si>
-    <t>jogo229</t>
-  </si>
-  <si>
-    <t>jogo230</t>
-  </si>
-  <si>
-    <t>jogo231</t>
-  </si>
-  <si>
-    <t>jogo232</t>
-  </si>
-  <si>
-    <t>jogo233</t>
-  </si>
-  <si>
-    <t>jogo234</t>
-  </si>
-  <si>
-    <t>jogo235</t>
+    <t>jogo213 - Bolao 18-21</t>
+  </si>
+  <si>
+    <t>jogo214 - Bolao 18-21</t>
+  </si>
+  <si>
+    <t>jogo215 - Bolao 18-21</t>
+  </si>
+  <si>
+    <t>jogo216 - Bolao 18-21</t>
+  </si>
+  <si>
+    <t>jogo217 - Bolao 18-21</t>
+  </si>
+  <si>
+    <t>jogo218 - Bolao 13-28</t>
+  </si>
+  <si>
+    <t>jogo219 - Bolao 13-28</t>
+  </si>
+  <si>
+    <t>jogo220 - Bolao 13-28</t>
+  </si>
+  <si>
+    <t>jogo221 - Bolao 13-28</t>
+  </si>
+  <si>
+    <t>jogo222 - Bolao 13-28</t>
+  </si>
+  <si>
+    <t>jogo223 - Bolao 13-28</t>
+  </si>
+  <si>
+    <t>jogo224 - Bolao 13-28</t>
+  </si>
+  <si>
+    <t>jogo225 - Bolao 13-28</t>
+  </si>
+  <si>
+    <t>jogo226 - Bolao 13-28</t>
+  </si>
+  <si>
+    <t>jogo227 - Bolao 13-28</t>
+  </si>
+  <si>
+    <t>jogo228 - Bolao 12-28</t>
+  </si>
+  <si>
+    <t>jogo229 - Bolao 12-28</t>
+  </si>
+  <si>
+    <t>jogo230 - Bolao 12-28</t>
+  </si>
+  <si>
+    <t>jogo231 - Bolao 12-28</t>
+  </si>
+  <si>
+    <t>jogo232 - Bolao 12-28</t>
+  </si>
+  <si>
+    <t>jogo233 - bolao 16-21</t>
+  </si>
+  <si>
+    <t>jogo234 - bolao 9-25</t>
+  </si>
+  <si>
+    <t>jogo235 - bolao 24-55</t>
   </si>
   <si>
     <t>jogo236</t>
@@ -822,12 +822,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,9 +845,22 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Futura-lt-book"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -857,84 +870,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,15 +894,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,6 +969,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -993,11 +992,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1010,7 +1030,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,19 +1102,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,19 +1120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,13 +1132,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,67 +1180,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,31 +1204,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,21 +1221,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1231,8 +1236,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,21 +1268,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1293,169 +1298,188 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1777,13 +1801,13 @@
   <sheetPr/>
   <dimension ref="A1:P253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.44444444444444" customWidth="1"/>
+    <col min="1" max="1" width="17.3333333333333" customWidth="1"/>
     <col min="2" max="16" width="3.22222222222222" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2025,7 +2049,7 @@
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>11</v>
       </c>
       <c r="D10">
@@ -2049,7 +2073,7 @@
       <c r="B11" s="2">
         <v>35</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>39</v>
       </c>
       <c r="D11">
@@ -2072,7 +2096,7 @@
       <c r="B12" s="2">
         <v>36</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>40</v>
       </c>
       <c r="D12">
@@ -2095,7 +2119,7 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>16</v>
       </c>
       <c r="D13">
@@ -2118,7 +2142,7 @@
       <c r="B14" s="2">
         <v>17</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>19</v>
       </c>
       <c r="D14">
@@ -2141,7 +2165,7 @@
       <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>10</v>
       </c>
       <c r="D15">
@@ -2161,10 +2185,10 @@
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16">
@@ -2184,10 +2208,10 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>7</v>
       </c>
       <c r="D17">
@@ -2207,10 +2231,10 @@
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>30</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>32</v>
       </c>
       <c r="D18">
@@ -2230,10 +2254,10 @@
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>32</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>39</v>
       </c>
       <c r="D19">
@@ -4412,232 +4436,232 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="6">
         <v>15</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="6">
         <v>18</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="6">
         <v>33</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="6">
         <v>45</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="6">
         <v>53</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="6">
         <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="6">
         <v>5</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="6">
         <v>24</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="6">
         <v>25</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="6">
         <v>29</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="6">
         <v>30</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="6">
         <v>6</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="6">
         <v>18</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="6">
         <v>21</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="6">
         <v>43</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="6">
         <v>45</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="6">
         <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="6">
         <v>5</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="6">
         <v>8</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="6">
         <v>23</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="6">
         <v>27</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="6">
         <v>31</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="6">
         <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="6">
         <v>15</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="6">
         <v>24</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="6">
         <v>30</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="6">
         <v>32</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="6">
         <v>52</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="6">
         <v>4</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="6">
         <v>13</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="6">
         <v>21</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="6">
         <v>23</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="6">
         <v>25</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="6">
         <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="6">
         <v>3</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="6">
         <v>40</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="6">
         <v>47</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="6">
         <v>50</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="6">
         <v>55</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="6">
         <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="6">
         <v>8</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="6">
         <v>9</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="6">
         <v>16</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="6">
         <v>38</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="6">
         <v>57</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="6">
         <v>7</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="6">
         <v>17</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="6">
         <v>30</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="6">
         <v>44</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="6">
         <v>46</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="6">
         <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="6">
         <v>30</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="6">
         <v>36</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="6">
         <v>43</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="6">
         <v>44</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="6">
         <v>46</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="6">
         <v>55</v>
       </c>
     </row>
@@ -6712,654 +6736,654 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="6">
         <v>6</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="6">
         <v>12</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="6">
         <v>15</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="6">
         <v>48</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="6">
         <v>52</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="6">
         <v>54</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="6">
         <v>57</v>
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="6">
         <v>2</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="6">
         <v>13</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="6">
         <v>18</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="6">
         <v>21</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="6">
         <v>22</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="6">
         <v>25</v>
       </c>
-      <c r="H215">
+      <c r="H215" s="6">
         <v>54</v>
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="6">
         <v>12</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="6">
         <v>13</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="6">
         <v>22</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="6">
         <v>23</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="6">
         <v>26</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="6">
         <v>45</v>
       </c>
-      <c r="H216">
+      <c r="H216" s="6">
         <v>51</v>
       </c>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="6">
         <v>7</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="6">
         <v>9</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="6">
         <v>13</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="6">
         <v>15</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="6">
         <v>18</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="6">
         <v>29</v>
       </c>
-      <c r="H217">
+      <c r="H217" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="6">
         <v>6</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="6">
         <v>11</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="6">
         <v>28</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="6">
         <v>31</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="6">
         <v>39</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="6">
         <v>51</v>
       </c>
-      <c r="H218">
+      <c r="H218" s="6">
         <v>55</v>
       </c>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="6">
         <v>4</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="6">
         <v>8</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="6">
         <v>18</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="6">
         <v>19</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="6">
         <v>26</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="6">
         <v>37</v>
       </c>
-      <c r="H219">
+      <c r="H219" s="6">
         <v>55</v>
       </c>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="6">
         <v>1</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="6">
         <v>7</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="6">
         <v>15</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="6">
         <v>18</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="6">
         <v>20</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="6">
         <v>26</v>
       </c>
-      <c r="H220">
+      <c r="H220" s="6">
         <v>52</v>
       </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="6">
         <v>5</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="6">
         <v>9</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="6">
         <v>15</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="6">
         <v>37</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="6">
         <v>45</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="6">
         <v>54</v>
       </c>
-      <c r="H221">
+      <c r="H221" s="6">
         <v>58</v>
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="6">
         <v>4</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="6">
         <v>7</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="6">
         <v>26</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="6">
         <v>27</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="6">
         <v>33</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="6">
         <v>48</v>
       </c>
-      <c r="H222">
+      <c r="H222" s="6">
         <v>51</v>
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="6">
         <v>1</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="6">
         <v>4</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="6">
         <v>21</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="6">
         <v>29</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="6">
         <v>30</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="6">
         <v>38</v>
       </c>
-      <c r="H223">
+      <c r="H223" s="6">
         <v>45</v>
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="6">
         <v>10</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="6">
         <v>15</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="6">
         <v>16</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="6">
         <v>21</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="6">
         <v>22</v>
       </c>
-      <c r="G224">
+      <c r="G224" s="6">
         <v>29</v>
       </c>
-      <c r="H224">
+      <c r="H224" s="6">
         <v>58</v>
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="6">
         <v>2</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="6">
         <v>9</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="6">
         <v>23</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="6">
         <v>41</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="6">
         <v>45</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="6">
         <v>56</v>
       </c>
-      <c r="H225">
+      <c r="H225" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="6">
         <v>13</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="6">
         <v>22</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="6">
         <v>25</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="6">
         <v>30</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="6">
         <v>35</v>
       </c>
-      <c r="G226">
+      <c r="G226" s="6">
         <v>52</v>
       </c>
-      <c r="H226">
+      <c r="H226" s="6">
         <v>55</v>
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="6">
         <v>28</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="6">
         <v>35</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="6">
         <v>39</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="6">
         <v>41</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="6">
         <v>45</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="6">
         <v>57</v>
       </c>
-      <c r="H227">
+      <c r="H227" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="6">
         <v>5</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="6">
         <v>8</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="6">
         <v>22</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="6">
         <v>39</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="6">
         <v>45</v>
       </c>
-      <c r="G228">
+      <c r="G228" s="6">
         <v>48</v>
       </c>
-      <c r="H228">
+      <c r="H228" s="6">
         <v>57</v>
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="6">
         <v>7</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="6">
         <v>35</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="6">
         <v>37</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="6">
         <v>41</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="6">
         <v>49</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="6">
         <v>53</v>
       </c>
-      <c r="H229">
+      <c r="H229" s="6">
         <v>56</v>
       </c>
-      <c r="I229">
+      <c r="I229" s="6">
         <v>58</v>
       </c>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="6">
         <v>1</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="6">
         <v>15</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="6">
         <v>22</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="6">
         <v>25</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="6">
         <v>39</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="6">
         <v>44</v>
       </c>
-      <c r="H230">
+      <c r="H230" s="6">
         <v>47</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="6">
         <v>52</v>
       </c>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="6">
         <v>13</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="6">
         <v>36</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="6">
         <v>39</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="6">
         <v>44</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="6">
         <v>49</v>
       </c>
-      <c r="G231">
+      <c r="G231" s="6">
         <v>52</v>
       </c>
-      <c r="H231">
+      <c r="H231" s="6">
         <v>55</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="6">
         <v>58</v>
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="6">
         <v>3</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="6">
         <v>4</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="6">
         <v>5</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="6">
         <v>10</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="6">
         <v>11</v>
       </c>
-      <c r="G232">
+      <c r="G232" s="6">
         <v>26</v>
       </c>
-      <c r="H232">
+      <c r="H232" s="6">
         <v>36</v>
       </c>
-      <c r="I232">
+      <c r="I232" s="6">
         <v>49</v>
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="6">
         <v>1</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="6">
         <v>3</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="6">
         <v>4</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="6">
         <v>22</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="6">
         <v>45</v>
       </c>
-      <c r="G233">
+      <c r="G233" s="6">
         <v>46</v>
       </c>
-      <c r="H233">
+      <c r="H233" s="6">
         <v>50</v>
       </c>
-      <c r="I233">
+      <c r="I233" s="6">
         <v>57</v>
       </c>
     </row>
     <row r="234" spans="1:10">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="6">
         <v>1</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="6">
         <v>24</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="6">
         <v>28</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="6">
         <v>30</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="6">
         <v>32</v>
       </c>
-      <c r="G234">
+      <c r="G234" s="6">
         <v>51</v>
       </c>
-      <c r="H234">
+      <c r="H234" s="6">
         <v>53</v>
       </c>
-      <c r="I234">
+      <c r="I234" s="6">
         <v>56</v>
       </c>
-      <c r="J234">
+      <c r="J234" s="6">
         <v>58</v>
       </c>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="6">
         <v>3</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="6">
         <v>4</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="6">
         <v>6</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="6">
         <v>11</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="6">
         <v>19</v>
       </c>
-      <c r="G235">
+      <c r="G235" s="6">
         <v>27</v>
       </c>
-      <c r="H235">
+      <c r="H235" s="6">
         <v>29</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="6">
         <v>32</v>
       </c>
-      <c r="J235">
+      <c r="J235" s="6">
         <v>35</v>
       </c>
-      <c r="K235">
+      <c r="K235" s="6">
         <v>47</v>
       </c>
     </row>
     <row r="236" spans="1:16">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="6">
         <v>2</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="6">
         <v>10</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="6">
         <v>13</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="6">
         <v>15</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="6">
         <v>19</v>
       </c>
-      <c r="G236">
+      <c r="G236" s="6">
         <v>24</v>
       </c>
-      <c r="H236">
+      <c r="H236" s="6">
         <v>27</v>
       </c>
-      <c r="I236">
+      <c r="I236" s="6">
         <v>31</v>
       </c>
-      <c r="J236">
+      <c r="J236" s="6">
         <v>34</v>
       </c>
-      <c r="K236">
+      <c r="K236" s="6">
         <v>37</v>
       </c>
-      <c r="L236">
+      <c r="L236" s="6">
         <v>43</v>
       </c>
-      <c r="M236">
+      <c r="M236" s="6">
         <v>46</v>
       </c>
-      <c r="N236">
+      <c r="N236" s="6">
         <v>50</v>
       </c>
-      <c r="O236">
+      <c r="O236" s="6">
         <v>52</v>
       </c>
-      <c r="P236">
+      <c r="P236" s="6">
         <v>58</v>
       </c>
     </row>
@@ -7684,25 +7708,25 @@
       <c r="A250" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="7">
         <v>3</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="7">
         <v>14</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="7">
         <v>29</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="7">
         <v>41</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="7">
         <v>50</v>
       </c>
-      <c r="G250">
+      <c r="G250" s="7">
         <v>52</v>
       </c>
-      <c r="H250">
+      <c r="H250" s="7">
         <v>54</v>
       </c>
     </row>
@@ -7710,25 +7734,25 @@
       <c r="A251" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="7">
         <v>6</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="7">
         <v>7</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="7">
         <v>24</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="7">
         <v>25</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="7">
         <v>30</v>
       </c>
-      <c r="G251">
+      <c r="G251" s="7">
         <v>34</v>
       </c>
-      <c r="H251">
+      <c r="H251" s="7">
         <v>42</v>
       </c>
     </row>
@@ -7736,25 +7760,25 @@
       <c r="A252" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="7">
         <v>22</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="7">
         <v>26</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="7">
         <v>27</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="7">
         <v>44</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="7">
         <v>47</v>
       </c>
-      <c r="G252">
+      <c r="G252" s="7">
         <v>49</v>
       </c>
-      <c r="H252">
+      <c r="H252" s="7">
         <v>59</v>
       </c>
     </row>
@@ -7762,25 +7786,25 @@
       <c r="A253" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="7">
         <v>13</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="7">
         <v>14</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="7">
         <v>22</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="7">
         <v>33</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="7">
         <v>40</v>
       </c>
-      <c r="G253">
+      <c r="G253" s="7">
         <v>49</v>
       </c>
-      <c r="H253">
+      <c r="H253" s="7">
         <v>50</v>
       </c>
     </row>

--- a/pronto/jogos.xlsx
+++ b/pronto/jogos.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
   <si>
     <t>n1</t>
   </si>
@@ -815,6 +816,156 @@
   </si>
   <si>
     <t>jogo252</t>
+  </si>
+  <si>
+    <t>jogo253</t>
+  </si>
+  <si>
+    <t>jogo254</t>
+  </si>
+  <si>
+    <t>jogo255</t>
+  </si>
+  <si>
+    <t>jogo256</t>
+  </si>
+  <si>
+    <t>jogo257</t>
+  </si>
+  <si>
+    <t>jogo258</t>
+  </si>
+  <si>
+    <t>jogo259</t>
+  </si>
+  <si>
+    <t>jogo260</t>
+  </si>
+  <si>
+    <t>jogo261</t>
+  </si>
+  <si>
+    <t>jogo262</t>
+  </si>
+  <si>
+    <t>jogo263</t>
+  </si>
+  <si>
+    <t>jogo264</t>
+  </si>
+  <si>
+    <t>jogo265</t>
+  </si>
+  <si>
+    <t>jogo266</t>
+  </si>
+  <si>
+    <t>jogo267</t>
+  </si>
+  <si>
+    <t>jogo268</t>
+  </si>
+  <si>
+    <t>jogo269</t>
+  </si>
+  <si>
+    <t>jogo270</t>
+  </si>
+  <si>
+    <t>jogo271</t>
+  </si>
+  <si>
+    <t>jogo272</t>
+  </si>
+  <si>
+    <t>jogo273</t>
+  </si>
+  <si>
+    <t>jogo274</t>
+  </si>
+  <si>
+    <t>jogo275</t>
+  </si>
+  <si>
+    <t>jogo276</t>
+  </si>
+  <si>
+    <t>jogo277</t>
+  </si>
+  <si>
+    <t>jogo278</t>
+  </si>
+  <si>
+    <t>jogo279</t>
+  </si>
+  <si>
+    <t>jogo280</t>
+  </si>
+  <si>
+    <t>jogo281</t>
+  </si>
+  <si>
+    <t>jogo282</t>
+  </si>
+  <si>
+    <t>jogo283</t>
+  </si>
+  <si>
+    <t>jogo284</t>
+  </si>
+  <si>
+    <t>jogo285</t>
+  </si>
+  <si>
+    <t>jogo286</t>
+  </si>
+  <si>
+    <t>jogo287</t>
+  </si>
+  <si>
+    <t>jogo288</t>
+  </si>
+  <si>
+    <t>jogo289</t>
+  </si>
+  <si>
+    <t>jogo290</t>
+  </si>
+  <si>
+    <t>jogo291</t>
+  </si>
+  <si>
+    <t>jogo292</t>
+  </si>
+  <si>
+    <t>jogo293</t>
+  </si>
+  <si>
+    <t>jogo294</t>
+  </si>
+  <si>
+    <t>jogo295</t>
+  </si>
+  <si>
+    <t>jogo296</t>
+  </si>
+  <si>
+    <t>jogo297</t>
+  </si>
+  <si>
+    <t>jogo298</t>
+  </si>
+  <si>
+    <t>jogo299</t>
+  </si>
+  <si>
+    <t>jogo300</t>
+  </si>
+  <si>
+    <t>jogo301</t>
+  </si>
+  <si>
+    <t>jogo302</t>
   </si>
 </sst>
 </file>
@@ -822,8 +973,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -885,21 +1036,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -907,19 +1043,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -931,16 +1067,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,14 +1106,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -993,14 +1121,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,10 +1157,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1030,7 +1181,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,31 +1235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,25 +1247,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,103 +1355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,30 +1380,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,6 +1425,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1312,154 +1472,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1469,13 +1620,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1799,10 +1949,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P253"/>
+  <dimension ref="A1:P303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="I304" sqref="I304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2185,7 +2335,7 @@
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="3">
@@ -2208,7 +2358,7 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="3">
@@ -2231,7 +2381,7 @@
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>30</v>
       </c>
       <c r="C18" s="3">
@@ -2254,7 +2404,7 @@
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>32</v>
       </c>
       <c r="C19" s="3">
@@ -4436,232 +4586,232 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="5">
         <v>15</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="5">
         <v>18</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="5">
         <v>33</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="5">
         <v>45</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F114" s="5">
         <v>53</v>
       </c>
-      <c r="G114" s="6">
+      <c r="G114" s="5">
         <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="5">
         <v>5</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="5">
         <v>24</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="5">
         <v>25</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="5">
         <v>29</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F115" s="5">
         <v>30</v>
       </c>
-      <c r="G115" s="6">
+      <c r="G115" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="5">
         <v>6</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="5">
         <v>18</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="5">
         <v>21</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="5">
         <v>43</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116" s="5">
         <v>45</v>
       </c>
-      <c r="G116" s="6">
+      <c r="G116" s="5">
         <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="5">
         <v>5</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="5">
         <v>8</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="5">
         <v>23</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="5">
         <v>27</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F117" s="5">
         <v>31</v>
       </c>
-      <c r="G117" s="6">
+      <c r="G117" s="5">
         <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="5">
         <v>15</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="5">
         <v>24</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="5">
         <v>30</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="5">
         <v>32</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118" s="5">
         <v>52</v>
       </c>
-      <c r="G118" s="6">
+      <c r="G118" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="5">
         <v>4</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="5">
         <v>13</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119" s="5">
         <v>21</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="5">
         <v>23</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F119" s="5">
         <v>25</v>
       </c>
-      <c r="G119" s="6">
+      <c r="G119" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="5">
         <v>3</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="5">
         <v>40</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120" s="5">
         <v>47</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120" s="5">
         <v>50</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120" s="5">
         <v>55</v>
       </c>
-      <c r="G120" s="6">
+      <c r="G120" s="5">
         <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="5">
         <v>8</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="5">
         <v>9</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121" s="5">
         <v>16</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="5">
         <v>38</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F121" s="5">
         <v>57</v>
       </c>
-      <c r="G121" s="6">
+      <c r="G121" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="5">
         <v>7</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="5">
         <v>17</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="5">
         <v>30</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="5">
         <v>44</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F122" s="5">
         <v>46</v>
       </c>
-      <c r="G122" s="6">
+      <c r="G122" s="5">
         <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="5">
         <v>30</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="5">
         <v>36</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123" s="5">
         <v>43</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="5">
         <v>44</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F123" s="5">
         <v>46</v>
       </c>
-      <c r="G123" s="6">
+      <c r="G123" s="5">
         <v>55</v>
       </c>
     </row>
@@ -6736,654 +6886,654 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B214" s="6">
+      <c r="B214" s="5">
         <v>6</v>
       </c>
-      <c r="C214" s="6">
+      <c r="C214" s="5">
         <v>12</v>
       </c>
-      <c r="D214" s="6">
+      <c r="D214" s="5">
         <v>15</v>
       </c>
-      <c r="E214" s="6">
+      <c r="E214" s="5">
         <v>48</v>
       </c>
-      <c r="F214" s="6">
+      <c r="F214" s="5">
         <v>52</v>
       </c>
-      <c r="G214" s="6">
+      <c r="G214" s="5">
         <v>54</v>
       </c>
-      <c r="H214" s="6">
+      <c r="H214" s="5">
         <v>57</v>
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B215" s="6">
+      <c r="B215" s="5">
         <v>2</v>
       </c>
-      <c r="C215" s="6">
+      <c r="C215" s="5">
         <v>13</v>
       </c>
-      <c r="D215" s="6">
+      <c r="D215" s="5">
         <v>18</v>
       </c>
-      <c r="E215" s="6">
+      <c r="E215" s="5">
         <v>21</v>
       </c>
-      <c r="F215" s="6">
+      <c r="F215" s="5">
         <v>22</v>
       </c>
-      <c r="G215" s="6">
+      <c r="G215" s="5">
         <v>25</v>
       </c>
-      <c r="H215" s="6">
+      <c r="H215" s="5">
         <v>54</v>
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="5" t="s">
+      <c r="A216" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B216" s="6">
+      <c r="B216" s="5">
         <v>12</v>
       </c>
-      <c r="C216" s="6">
+      <c r="C216" s="5">
         <v>13</v>
       </c>
-      <c r="D216" s="6">
+      <c r="D216" s="5">
         <v>22</v>
       </c>
-      <c r="E216" s="6">
+      <c r="E216" s="5">
         <v>23</v>
       </c>
-      <c r="F216" s="6">
+      <c r="F216" s="5">
         <v>26</v>
       </c>
-      <c r="G216" s="6">
+      <c r="G216" s="5">
         <v>45</v>
       </c>
-      <c r="H216" s="6">
+      <c r="H216" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B217" s="6">
+      <c r="B217" s="5">
         <v>7</v>
       </c>
-      <c r="C217" s="6">
+      <c r="C217" s="5">
         <v>9</v>
       </c>
-      <c r="D217" s="6">
+      <c r="D217" s="5">
         <v>13</v>
       </c>
-      <c r="E217" s="6">
+      <c r="E217" s="5">
         <v>15</v>
       </c>
-      <c r="F217" s="6">
+      <c r="F217" s="5">
         <v>18</v>
       </c>
-      <c r="G217" s="6">
+      <c r="G217" s="5">
         <v>29</v>
       </c>
-      <c r="H217" s="6">
+      <c r="H217" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B218" s="6">
+      <c r="B218" s="5">
         <v>6</v>
       </c>
-      <c r="C218" s="6">
+      <c r="C218" s="5">
         <v>11</v>
       </c>
-      <c r="D218" s="6">
+      <c r="D218" s="5">
         <v>28</v>
       </c>
-      <c r="E218" s="6">
+      <c r="E218" s="5">
         <v>31</v>
       </c>
-      <c r="F218" s="6">
+      <c r="F218" s="5">
         <v>39</v>
       </c>
-      <c r="G218" s="6">
+      <c r="G218" s="5">
         <v>51</v>
       </c>
-      <c r="H218" s="6">
+      <c r="H218" s="5">
         <v>55</v>
       </c>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B219" s="6">
+      <c r="B219" s="5">
         <v>4</v>
       </c>
-      <c r="C219" s="6">
+      <c r="C219" s="5">
         <v>8</v>
       </c>
-      <c r="D219" s="6">
+      <c r="D219" s="5">
         <v>18</v>
       </c>
-      <c r="E219" s="6">
+      <c r="E219" s="5">
         <v>19</v>
       </c>
-      <c r="F219" s="6">
+      <c r="F219" s="5">
         <v>26</v>
       </c>
-      <c r="G219" s="6">
+      <c r="G219" s="5">
         <v>37</v>
       </c>
-      <c r="H219" s="6">
+      <c r="H219" s="5">
         <v>55</v>
       </c>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B220" s="6">
+      <c r="B220" s="5">
         <v>1</v>
       </c>
-      <c r="C220" s="6">
+      <c r="C220" s="5">
         <v>7</v>
       </c>
-      <c r="D220" s="6">
+      <c r="D220" s="5">
         <v>15</v>
       </c>
-      <c r="E220" s="6">
+      <c r="E220" s="5">
         <v>18</v>
       </c>
-      <c r="F220" s="6">
+      <c r="F220" s="5">
         <v>20</v>
       </c>
-      <c r="G220" s="6">
+      <c r="G220" s="5">
         <v>26</v>
       </c>
-      <c r="H220" s="6">
+      <c r="H220" s="5">
         <v>52</v>
       </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="5" t="s">
+      <c r="A221" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B221" s="6">
+      <c r="B221" s="5">
         <v>5</v>
       </c>
-      <c r="C221" s="6">
+      <c r="C221" s="5">
         <v>9</v>
       </c>
-      <c r="D221" s="6">
+      <c r="D221" s="5">
         <v>15</v>
       </c>
-      <c r="E221" s="6">
+      <c r="E221" s="5">
         <v>37</v>
       </c>
-      <c r="F221" s="6">
+      <c r="F221" s="5">
         <v>45</v>
       </c>
-      <c r="G221" s="6">
+      <c r="G221" s="5">
         <v>54</v>
       </c>
-      <c r="H221" s="6">
+      <c r="H221" s="5">
         <v>58</v>
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="5" t="s">
+      <c r="A222" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B222" s="6">
+      <c r="B222" s="5">
         <v>4</v>
       </c>
-      <c r="C222" s="6">
+      <c r="C222" s="5">
         <v>7</v>
       </c>
-      <c r="D222" s="6">
+      <c r="D222" s="5">
         <v>26</v>
       </c>
-      <c r="E222" s="6">
+      <c r="E222" s="5">
         <v>27</v>
       </c>
-      <c r="F222" s="6">
+      <c r="F222" s="5">
         <v>33</v>
       </c>
-      <c r="G222" s="6">
+      <c r="G222" s="5">
         <v>48</v>
       </c>
-      <c r="H222" s="6">
+      <c r="H222" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="5" t="s">
+      <c r="A223" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B223" s="6">
+      <c r="B223" s="5">
         <v>1</v>
       </c>
-      <c r="C223" s="6">
+      <c r="C223" s="5">
         <v>4</v>
       </c>
-      <c r="D223" s="6">
+      <c r="D223" s="5">
         <v>21</v>
       </c>
-      <c r="E223" s="6">
+      <c r="E223" s="5">
         <v>29</v>
       </c>
-      <c r="F223" s="6">
+      <c r="F223" s="5">
         <v>30</v>
       </c>
-      <c r="G223" s="6">
+      <c r="G223" s="5">
         <v>38</v>
       </c>
-      <c r="H223" s="6">
+      <c r="H223" s="5">
         <v>45</v>
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="5" t="s">
+      <c r="A224" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B224" s="6">
+      <c r="B224" s="5">
         <v>10</v>
       </c>
-      <c r="C224" s="6">
+      <c r="C224" s="5">
         <v>15</v>
       </c>
-      <c r="D224" s="6">
+      <c r="D224" s="5">
         <v>16</v>
       </c>
-      <c r="E224" s="6">
+      <c r="E224" s="5">
         <v>21</v>
       </c>
-      <c r="F224" s="6">
+      <c r="F224" s="5">
         <v>22</v>
       </c>
-      <c r="G224" s="6">
+      <c r="G224" s="5">
         <v>29</v>
       </c>
-      <c r="H224" s="6">
+      <c r="H224" s="5">
         <v>58</v>
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B225" s="6">
+      <c r="B225" s="5">
         <v>2</v>
       </c>
-      <c r="C225" s="6">
+      <c r="C225" s="5">
         <v>9</v>
       </c>
-      <c r="D225" s="6">
+      <c r="D225" s="5">
         <v>23</v>
       </c>
-      <c r="E225" s="6">
+      <c r="E225" s="5">
         <v>41</v>
       </c>
-      <c r="F225" s="6">
+      <c r="F225" s="5">
         <v>45</v>
       </c>
-      <c r="G225" s="6">
+      <c r="G225" s="5">
         <v>56</v>
       </c>
-      <c r="H225" s="6">
+      <c r="H225" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="5" t="s">
+      <c r="A226" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B226" s="6">
+      <c r="B226" s="5">
         <v>13</v>
       </c>
-      <c r="C226" s="6">
+      <c r="C226" s="5">
         <v>22</v>
       </c>
-      <c r="D226" s="6">
+      <c r="D226" s="5">
         <v>25</v>
       </c>
-      <c r="E226" s="6">
+      <c r="E226" s="5">
         <v>30</v>
       </c>
-      <c r="F226" s="6">
+      <c r="F226" s="5">
         <v>35</v>
       </c>
-      <c r="G226" s="6">
+      <c r="G226" s="5">
         <v>52</v>
       </c>
-      <c r="H226" s="6">
+      <c r="H226" s="5">
         <v>55</v>
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B227" s="6">
+      <c r="B227" s="5">
         <v>28</v>
       </c>
-      <c r="C227" s="6">
+      <c r="C227" s="5">
         <v>35</v>
       </c>
-      <c r="D227" s="6">
+      <c r="D227" s="5">
         <v>39</v>
       </c>
-      <c r="E227" s="6">
+      <c r="E227" s="5">
         <v>41</v>
       </c>
-      <c r="F227" s="6">
+      <c r="F227" s="5">
         <v>45</v>
       </c>
-      <c r="G227" s="6">
+      <c r="G227" s="5">
         <v>57</v>
       </c>
-      <c r="H227" s="6">
+      <c r="H227" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="5" t="s">
+      <c r="A228" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B228" s="6">
+      <c r="B228" s="5">
         <v>5</v>
       </c>
-      <c r="C228" s="6">
+      <c r="C228" s="5">
         <v>8</v>
       </c>
-      <c r="D228" s="6">
+      <c r="D228" s="5">
         <v>22</v>
       </c>
-      <c r="E228" s="6">
+      <c r="E228" s="5">
         <v>39</v>
       </c>
-      <c r="F228" s="6">
+      <c r="F228" s="5">
         <v>45</v>
       </c>
-      <c r="G228" s="6">
+      <c r="G228" s="5">
         <v>48</v>
       </c>
-      <c r="H228" s="6">
+      <c r="H228" s="5">
         <v>57</v>
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B229" s="6">
+      <c r="B229" s="5">
         <v>7</v>
       </c>
-      <c r="C229" s="6">
+      <c r="C229" s="5">
         <v>35</v>
       </c>
-      <c r="D229" s="6">
+      <c r="D229" s="5">
         <v>37</v>
       </c>
-      <c r="E229" s="6">
+      <c r="E229" s="5">
         <v>41</v>
       </c>
-      <c r="F229" s="6">
+      <c r="F229" s="5">
         <v>49</v>
       </c>
-      <c r="G229" s="6">
+      <c r="G229" s="5">
         <v>53</v>
       </c>
-      <c r="H229" s="6">
+      <c r="H229" s="5">
         <v>56</v>
       </c>
-      <c r="I229" s="6">
+      <c r="I229" s="5">
         <v>58</v>
       </c>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B230" s="6">
+      <c r="B230" s="5">
         <v>1</v>
       </c>
-      <c r="C230" s="6">
+      <c r="C230" s="5">
         <v>15</v>
       </c>
-      <c r="D230" s="6">
+      <c r="D230" s="5">
         <v>22</v>
       </c>
-      <c r="E230" s="6">
+      <c r="E230" s="5">
         <v>25</v>
       </c>
-      <c r="F230" s="6">
+      <c r="F230" s="5">
         <v>39</v>
       </c>
-      <c r="G230" s="6">
+      <c r="G230" s="5">
         <v>44</v>
       </c>
-      <c r="H230" s="6">
+      <c r="H230" s="5">
         <v>47</v>
       </c>
-      <c r="I230" s="6">
+      <c r="I230" s="5">
         <v>52</v>
       </c>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B231" s="6">
+      <c r="B231" s="5">
         <v>13</v>
       </c>
-      <c r="C231" s="6">
+      <c r="C231" s="5">
         <v>36</v>
       </c>
-      <c r="D231" s="6">
+      <c r="D231" s="5">
         <v>39</v>
       </c>
-      <c r="E231" s="6">
+      <c r="E231" s="5">
         <v>44</v>
       </c>
-      <c r="F231" s="6">
+      <c r="F231" s="5">
         <v>49</v>
       </c>
-      <c r="G231" s="6">
+      <c r="G231" s="5">
         <v>52</v>
       </c>
-      <c r="H231" s="6">
+      <c r="H231" s="5">
         <v>55</v>
       </c>
-      <c r="I231" s="6">
+      <c r="I231" s="5">
         <v>58</v>
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B232" s="6">
+      <c r="B232" s="5">
         <v>3</v>
       </c>
-      <c r="C232" s="6">
+      <c r="C232" s="5">
         <v>4</v>
       </c>
-      <c r="D232" s="6">
+      <c r="D232" s="5">
         <v>5</v>
       </c>
-      <c r="E232" s="6">
+      <c r="E232" s="5">
         <v>10</v>
       </c>
-      <c r="F232" s="6">
+      <c r="F232" s="5">
         <v>11</v>
       </c>
-      <c r="G232" s="6">
+      <c r="G232" s="5">
         <v>26</v>
       </c>
-      <c r="H232" s="6">
+      <c r="H232" s="5">
         <v>36</v>
       </c>
-      <c r="I232" s="6">
+      <c r="I232" s="5">
         <v>49</v>
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B233" s="6">
+      <c r="B233" s="5">
         <v>1</v>
       </c>
-      <c r="C233" s="6">
+      <c r="C233" s="5">
         <v>3</v>
       </c>
-      <c r="D233" s="6">
+      <c r="D233" s="5">
         <v>4</v>
       </c>
-      <c r="E233" s="6">
+      <c r="E233" s="5">
         <v>22</v>
       </c>
-      <c r="F233" s="6">
+      <c r="F233" s="5">
         <v>45</v>
       </c>
-      <c r="G233" s="6">
+      <c r="G233" s="5">
         <v>46</v>
       </c>
-      <c r="H233" s="6">
+      <c r="H233" s="5">
         <v>50</v>
       </c>
-      <c r="I233" s="6">
+      <c r="I233" s="5">
         <v>57</v>
       </c>
     </row>
     <row r="234" spans="1:10">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B234" s="6">
+      <c r="B234" s="5">
         <v>1</v>
       </c>
-      <c r="C234" s="6">
+      <c r="C234" s="5">
         <v>24</v>
       </c>
-      <c r="D234" s="6">
+      <c r="D234" s="5">
         <v>28</v>
       </c>
-      <c r="E234" s="6">
+      <c r="E234" s="5">
         <v>30</v>
       </c>
-      <c r="F234" s="6">
+      <c r="F234" s="5">
         <v>32</v>
       </c>
-      <c r="G234" s="6">
+      <c r="G234" s="5">
         <v>51</v>
       </c>
-      <c r="H234" s="6">
+      <c r="H234" s="5">
         <v>53</v>
       </c>
-      <c r="I234" s="6">
+      <c r="I234" s="5">
         <v>56</v>
       </c>
-      <c r="J234" s="6">
+      <c r="J234" s="5">
         <v>58</v>
       </c>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="5" t="s">
+      <c r="A235" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B235" s="6">
+      <c r="B235" s="5">
         <v>3</v>
       </c>
-      <c r="C235" s="6">
+      <c r="C235" s="5">
         <v>4</v>
       </c>
-      <c r="D235" s="6">
+      <c r="D235" s="5">
         <v>6</v>
       </c>
-      <c r="E235" s="6">
+      <c r="E235" s="5">
         <v>11</v>
       </c>
-      <c r="F235" s="6">
+      <c r="F235" s="5">
         <v>19</v>
       </c>
-      <c r="G235" s="6">
+      <c r="G235" s="5">
         <v>27</v>
       </c>
-      <c r="H235" s="6">
+      <c r="H235" s="5">
         <v>29</v>
       </c>
-      <c r="I235" s="6">
+      <c r="I235" s="5">
         <v>32</v>
       </c>
-      <c r="J235" s="6">
+      <c r="J235" s="5">
         <v>35</v>
       </c>
-      <c r="K235" s="6">
+      <c r="K235" s="5">
         <v>47</v>
       </c>
     </row>
     <row r="236" spans="1:16">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B236" s="6">
+      <c r="B236" s="5">
         <v>2</v>
       </c>
-      <c r="C236" s="6">
+      <c r="C236" s="5">
         <v>10</v>
       </c>
-      <c r="D236" s="6">
+      <c r="D236" s="5">
         <v>13</v>
       </c>
-      <c r="E236" s="6">
+      <c r="E236" s="5">
         <v>15</v>
       </c>
-      <c r="F236" s="6">
+      <c r="F236" s="5">
         <v>19</v>
       </c>
-      <c r="G236" s="6">
+      <c r="G236" s="5">
         <v>24</v>
       </c>
-      <c r="H236" s="6">
+      <c r="H236" s="5">
         <v>27</v>
       </c>
-      <c r="I236" s="6">
+      <c r="I236" s="5">
         <v>31</v>
       </c>
-      <c r="J236" s="6">
+      <c r="J236" s="5">
         <v>34</v>
       </c>
-      <c r="K236" s="6">
+      <c r="K236" s="5">
         <v>37</v>
       </c>
-      <c r="L236" s="6">
+      <c r="L236" s="5">
         <v>43</v>
       </c>
-      <c r="M236" s="6">
+      <c r="M236" s="5">
         <v>46</v>
       </c>
-      <c r="N236" s="6">
+      <c r="N236" s="5">
         <v>50</v>
       </c>
-      <c r="O236" s="6">
+      <c r="O236" s="5">
         <v>52</v>
       </c>
-      <c r="P236" s="6">
+      <c r="P236" s="5">
         <v>58</v>
       </c>
     </row>
@@ -7708,25 +7858,25 @@
       <c r="A250" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B250" s="7">
+      <c r="B250" s="6">
         <v>3</v>
       </c>
-      <c r="C250" s="7">
+      <c r="C250" s="6">
         <v>14</v>
       </c>
-      <c r="D250" s="7">
+      <c r="D250" s="6">
         <v>29</v>
       </c>
-      <c r="E250" s="7">
+      <c r="E250" s="6">
         <v>41</v>
       </c>
-      <c r="F250" s="7">
+      <c r="F250" s="6">
         <v>50</v>
       </c>
-      <c r="G250" s="7">
+      <c r="G250" s="6">
         <v>52</v>
       </c>
-      <c r="H250" s="7">
+      <c r="H250" s="6">
         <v>54</v>
       </c>
     </row>
@@ -7734,25 +7884,25 @@
       <c r="A251" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B251" s="7">
+      <c r="B251" s="6">
         <v>6</v>
       </c>
-      <c r="C251" s="7">
+      <c r="C251" s="6">
         <v>7</v>
       </c>
-      <c r="D251" s="7">
+      <c r="D251" s="6">
         <v>24</v>
       </c>
-      <c r="E251" s="7">
+      <c r="E251" s="6">
         <v>25</v>
       </c>
-      <c r="F251" s="7">
+      <c r="F251" s="6">
         <v>30</v>
       </c>
-      <c r="G251" s="7">
+      <c r="G251" s="6">
         <v>34</v>
       </c>
-      <c r="H251" s="7">
+      <c r="H251" s="6">
         <v>42</v>
       </c>
     </row>
@@ -7760,25 +7910,25 @@
       <c r="A252" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B252" s="7">
+      <c r="B252" s="6">
         <v>22</v>
       </c>
-      <c r="C252" s="7">
+      <c r="C252" s="6">
         <v>26</v>
       </c>
-      <c r="D252" s="7">
+      <c r="D252" s="6">
         <v>27</v>
       </c>
-      <c r="E252" s="7">
+      <c r="E252" s="6">
         <v>44</v>
       </c>
-      <c r="F252" s="7">
+      <c r="F252" s="6">
         <v>47</v>
       </c>
-      <c r="G252" s="7">
+      <c r="G252" s="6">
         <v>49</v>
       </c>
-      <c r="H252" s="7">
+      <c r="H252" s="6">
         <v>59</v>
       </c>
     </row>
@@ -7786,26 +7936,1176 @@
       <c r="A253" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B253" s="7">
+      <c r="B253" s="6">
         <v>13</v>
       </c>
-      <c r="C253" s="7">
+      <c r="C253" s="6">
         <v>14</v>
       </c>
-      <c r="D253" s="7">
+      <c r="D253" s="6">
         <v>22</v>
       </c>
-      <c r="E253" s="7">
+      <c r="E253" s="6">
         <v>33</v>
       </c>
-      <c r="F253" s="7">
+      <c r="F253" s="6">
         <v>40</v>
       </c>
-      <c r="G253" s="7">
+      <c r="G253" s="6">
         <v>49</v>
       </c>
-      <c r="H253" s="7">
+      <c r="H253" s="6">
         <v>50</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B254">
+        <v>5</v>
+      </c>
+      <c r="C254">
+        <v>6</v>
+      </c>
+      <c r="D254">
+        <v>11</v>
+      </c>
+      <c r="E254">
+        <v>11</v>
+      </c>
+      <c r="F254">
+        <v>19</v>
+      </c>
+      <c r="G254">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B255">
+        <v>8</v>
+      </c>
+      <c r="C255">
+        <v>9</v>
+      </c>
+      <c r="D255">
+        <v>13</v>
+      </c>
+      <c r="E255">
+        <v>20</v>
+      </c>
+      <c r="F255">
+        <v>21</v>
+      </c>
+      <c r="G255">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>7</v>
+      </c>
+      <c r="E256">
+        <v>8</v>
+      </c>
+      <c r="F256">
+        <v>22</v>
+      </c>
+      <c r="G256">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B257">
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <v>7</v>
+      </c>
+      <c r="D257">
+        <v>8</v>
+      </c>
+      <c r="E257">
+        <v>13</v>
+      </c>
+      <c r="F257">
+        <v>15</v>
+      </c>
+      <c r="G257">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B258">
+        <v>9</v>
+      </c>
+      <c r="C258">
+        <v>11</v>
+      </c>
+      <c r="D258">
+        <v>12</v>
+      </c>
+      <c r="E258">
+        <v>19</v>
+      </c>
+      <c r="F258">
+        <v>24</v>
+      </c>
+      <c r="G258">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B259">
+        <v>4</v>
+      </c>
+      <c r="C259">
+        <v>12</v>
+      </c>
+      <c r="D259">
+        <v>16</v>
+      </c>
+      <c r="E259">
+        <v>25</v>
+      </c>
+      <c r="F259">
+        <v>30</v>
+      </c>
+      <c r="G259">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B260">
+        <v>4</v>
+      </c>
+      <c r="C260">
+        <v>9</v>
+      </c>
+      <c r="D260">
+        <v>17</v>
+      </c>
+      <c r="E260">
+        <v>18</v>
+      </c>
+      <c r="F260">
+        <v>22</v>
+      </c>
+      <c r="G260">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261">
+        <v>8</v>
+      </c>
+      <c r="D261">
+        <v>8</v>
+      </c>
+      <c r="E261">
+        <v>11</v>
+      </c>
+      <c r="F261">
+        <v>13</v>
+      </c>
+      <c r="G261">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B262">
+        <v>6</v>
+      </c>
+      <c r="C262">
+        <v>10</v>
+      </c>
+      <c r="D262">
+        <v>13</v>
+      </c>
+      <c r="E262">
+        <v>19</v>
+      </c>
+      <c r="F262">
+        <v>27</v>
+      </c>
+      <c r="G262">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+      <c r="C263">
+        <v>9</v>
+      </c>
+      <c r="D263">
+        <v>27</v>
+      </c>
+      <c r="E263">
+        <v>27</v>
+      </c>
+      <c r="F263">
+        <v>28</v>
+      </c>
+      <c r="G263">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B264">
+        <v>5</v>
+      </c>
+      <c r="C264">
+        <v>6</v>
+      </c>
+      <c r="D264">
+        <v>6</v>
+      </c>
+      <c r="E264">
+        <v>8</v>
+      </c>
+      <c r="F264">
+        <v>15</v>
+      </c>
+      <c r="G264">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+      <c r="D265">
+        <v>7</v>
+      </c>
+      <c r="E265">
+        <v>18</v>
+      </c>
+      <c r="F265">
+        <v>19</v>
+      </c>
+      <c r="G265">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B266">
+        <v>8</v>
+      </c>
+      <c r="C266">
+        <v>10</v>
+      </c>
+      <c r="D266">
+        <v>18</v>
+      </c>
+      <c r="E266">
+        <v>25</v>
+      </c>
+      <c r="F266">
+        <v>27</v>
+      </c>
+      <c r="G266">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>5</v>
+      </c>
+      <c r="D267">
+        <v>8</v>
+      </c>
+      <c r="E267">
+        <v>13</v>
+      </c>
+      <c r="F267">
+        <v>23</v>
+      </c>
+      <c r="G267">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>7</v>
+      </c>
+      <c r="D268">
+        <v>10</v>
+      </c>
+      <c r="E268">
+        <v>11</v>
+      </c>
+      <c r="F268">
+        <v>14</v>
+      </c>
+      <c r="G268">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B269">
+        <v>5</v>
+      </c>
+      <c r="C269">
+        <v>8</v>
+      </c>
+      <c r="D269">
+        <v>21</v>
+      </c>
+      <c r="E269">
+        <v>21</v>
+      </c>
+      <c r="F269">
+        <v>25</v>
+      </c>
+      <c r="G269">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B270">
+        <v>14</v>
+      </c>
+      <c r="C270">
+        <v>15</v>
+      </c>
+      <c r="D270">
+        <v>18</v>
+      </c>
+      <c r="E270">
+        <v>20</v>
+      </c>
+      <c r="F270">
+        <v>27</v>
+      </c>
+      <c r="G270">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271">
+        <v>8</v>
+      </c>
+      <c r="D271">
+        <v>9</v>
+      </c>
+      <c r="E271">
+        <v>12</v>
+      </c>
+      <c r="F271">
+        <v>13</v>
+      </c>
+      <c r="G271">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B272">
+        <v>3</v>
+      </c>
+      <c r="C272">
+        <v>9</v>
+      </c>
+      <c r="D272">
+        <v>9</v>
+      </c>
+      <c r="E272">
+        <v>17</v>
+      </c>
+      <c r="F272">
+        <v>18</v>
+      </c>
+      <c r="G272">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>12</v>
+      </c>
+      <c r="E273">
+        <v>12</v>
+      </c>
+      <c r="F273">
+        <v>15</v>
+      </c>
+      <c r="G273">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274">
+        <v>10</v>
+      </c>
+      <c r="D274">
+        <v>21</v>
+      </c>
+      <c r="E274">
+        <v>22</v>
+      </c>
+      <c r="F274">
+        <v>27</v>
+      </c>
+      <c r="G274">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+      <c r="D275">
+        <v>4</v>
+      </c>
+      <c r="E275">
+        <v>15</v>
+      </c>
+      <c r="F275">
+        <v>24</v>
+      </c>
+      <c r="G275">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276">
+        <v>8</v>
+      </c>
+      <c r="D276">
+        <v>11</v>
+      </c>
+      <c r="E276">
+        <v>23</v>
+      </c>
+      <c r="F276">
+        <v>24</v>
+      </c>
+      <c r="G276">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>10</v>
+      </c>
+      <c r="D277">
+        <v>14</v>
+      </c>
+      <c r="E277">
+        <v>15</v>
+      </c>
+      <c r="F277">
+        <v>21</v>
+      </c>
+      <c r="G277">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>7</v>
+      </c>
+      <c r="D278">
+        <v>11</v>
+      </c>
+      <c r="E278">
+        <v>14</v>
+      </c>
+      <c r="F278">
+        <v>17</v>
+      </c>
+      <c r="G278">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B279">
+        <v>36</v>
+      </c>
+      <c r="C279">
+        <v>46</v>
+      </c>
+      <c r="D279">
+        <v>48</v>
+      </c>
+      <c r="E279">
+        <v>49</v>
+      </c>
+      <c r="F279">
+        <v>50</v>
+      </c>
+      <c r="G279">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B280">
+        <v>33</v>
+      </c>
+      <c r="C280">
+        <v>34</v>
+      </c>
+      <c r="D280">
+        <v>37</v>
+      </c>
+      <c r="E280">
+        <v>42</v>
+      </c>
+      <c r="F280">
+        <v>42</v>
+      </c>
+      <c r="G280">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B281">
+        <v>32</v>
+      </c>
+      <c r="C281">
+        <v>42</v>
+      </c>
+      <c r="D281">
+        <v>42</v>
+      </c>
+      <c r="E281">
+        <v>52</v>
+      </c>
+      <c r="F281">
+        <v>57</v>
+      </c>
+      <c r="G281">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B282">
+        <v>34</v>
+      </c>
+      <c r="C282">
+        <v>36</v>
+      </c>
+      <c r="D282">
+        <v>40</v>
+      </c>
+      <c r="E282">
+        <v>40</v>
+      </c>
+      <c r="F282">
+        <v>41</v>
+      </c>
+      <c r="G282">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B283">
+        <v>34</v>
+      </c>
+      <c r="C283">
+        <v>35</v>
+      </c>
+      <c r="D283">
+        <v>38</v>
+      </c>
+      <c r="E283">
+        <v>46</v>
+      </c>
+      <c r="F283">
+        <v>47</v>
+      </c>
+      <c r="G283">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B284">
+        <v>36</v>
+      </c>
+      <c r="C284">
+        <v>39</v>
+      </c>
+      <c r="D284">
+        <v>44</v>
+      </c>
+      <c r="E284">
+        <v>44</v>
+      </c>
+      <c r="F284">
+        <v>50</v>
+      </c>
+      <c r="G284">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B285">
+        <v>41</v>
+      </c>
+      <c r="C285">
+        <v>46</v>
+      </c>
+      <c r="D285">
+        <v>53</v>
+      </c>
+      <c r="E285">
+        <v>53</v>
+      </c>
+      <c r="F285">
+        <v>56</v>
+      </c>
+      <c r="G285">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B286">
+        <v>33</v>
+      </c>
+      <c r="C286">
+        <v>37</v>
+      </c>
+      <c r="D286">
+        <v>41</v>
+      </c>
+      <c r="E286">
+        <v>47</v>
+      </c>
+      <c r="F286">
+        <v>53</v>
+      </c>
+      <c r="G286">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B287">
+        <v>32</v>
+      </c>
+      <c r="C287">
+        <v>37</v>
+      </c>
+      <c r="D287">
+        <v>46</v>
+      </c>
+      <c r="E287">
+        <v>50</v>
+      </c>
+      <c r="F287">
+        <v>53</v>
+      </c>
+      <c r="G287">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B288">
+        <v>31</v>
+      </c>
+      <c r="C288">
+        <v>38</v>
+      </c>
+      <c r="D288">
+        <v>40</v>
+      </c>
+      <c r="E288">
+        <v>41</v>
+      </c>
+      <c r="F288">
+        <v>44</v>
+      </c>
+      <c r="G288">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B289">
+        <v>31</v>
+      </c>
+      <c r="C289">
+        <v>31</v>
+      </c>
+      <c r="D289">
+        <v>42</v>
+      </c>
+      <c r="E289">
+        <v>43</v>
+      </c>
+      <c r="F289">
+        <v>57</v>
+      </c>
+      <c r="G289">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B290">
+        <v>31</v>
+      </c>
+      <c r="C290">
+        <v>36</v>
+      </c>
+      <c r="D290">
+        <v>40</v>
+      </c>
+      <c r="E290">
+        <v>43</v>
+      </c>
+      <c r="F290">
+        <v>46</v>
+      </c>
+      <c r="G290">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B291">
+        <v>43</v>
+      </c>
+      <c r="C291">
+        <v>49</v>
+      </c>
+      <c r="D291">
+        <v>49</v>
+      </c>
+      <c r="E291">
+        <v>51</v>
+      </c>
+      <c r="F291">
+        <v>56</v>
+      </c>
+      <c r="G291">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B292">
+        <v>32</v>
+      </c>
+      <c r="C292">
+        <v>33</v>
+      </c>
+      <c r="D292">
+        <v>44</v>
+      </c>
+      <c r="E292">
+        <v>52</v>
+      </c>
+      <c r="F292">
+        <v>57</v>
+      </c>
+      <c r="G292">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B293">
+        <v>36</v>
+      </c>
+      <c r="C293">
+        <v>40</v>
+      </c>
+      <c r="D293">
+        <v>41</v>
+      </c>
+      <c r="E293">
+        <v>50</v>
+      </c>
+      <c r="F293">
+        <v>52</v>
+      </c>
+      <c r="G293">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B294">
+        <v>33</v>
+      </c>
+      <c r="C294">
+        <v>43</v>
+      </c>
+      <c r="D294">
+        <v>44</v>
+      </c>
+      <c r="E294">
+        <v>45</v>
+      </c>
+      <c r="F294">
+        <v>47</v>
+      </c>
+      <c r="G294">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B295">
+        <v>34</v>
+      </c>
+      <c r="C295">
+        <v>36</v>
+      </c>
+      <c r="D295">
+        <v>38</v>
+      </c>
+      <c r="E295">
+        <v>39</v>
+      </c>
+      <c r="F295">
+        <v>43</v>
+      </c>
+      <c r="G295">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B296">
+        <v>43</v>
+      </c>
+      <c r="C296">
+        <v>45</v>
+      </c>
+      <c r="D296">
+        <v>48</v>
+      </c>
+      <c r="E296">
+        <v>50</v>
+      </c>
+      <c r="F296">
+        <v>51</v>
+      </c>
+      <c r="G296">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B297">
+        <v>40</v>
+      </c>
+      <c r="C297">
+        <v>41</v>
+      </c>
+      <c r="D297">
+        <v>46</v>
+      </c>
+      <c r="E297">
+        <v>49</v>
+      </c>
+      <c r="F297">
+        <v>56</v>
+      </c>
+      <c r="G297">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B298">
+        <v>32</v>
+      </c>
+      <c r="C298">
+        <v>33</v>
+      </c>
+      <c r="D298">
+        <v>36</v>
+      </c>
+      <c r="E298">
+        <v>40</v>
+      </c>
+      <c r="F298">
+        <v>51</v>
+      </c>
+      <c r="G298">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B299">
+        <v>31</v>
+      </c>
+      <c r="C299">
+        <v>34</v>
+      </c>
+      <c r="D299">
+        <v>35</v>
+      </c>
+      <c r="E299">
+        <v>41</v>
+      </c>
+      <c r="F299">
+        <v>52</v>
+      </c>
+      <c r="G299">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B300">
+        <v>34</v>
+      </c>
+      <c r="C300">
+        <v>38</v>
+      </c>
+      <c r="D300">
+        <v>40</v>
+      </c>
+      <c r="E300">
+        <v>41</v>
+      </c>
+      <c r="F300">
+        <v>44</v>
+      </c>
+      <c r="G300">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B301">
+        <v>32</v>
+      </c>
+      <c r="C301">
+        <v>40</v>
+      </c>
+      <c r="D301">
+        <v>42</v>
+      </c>
+      <c r="E301">
+        <v>52</v>
+      </c>
+      <c r="F301">
+        <v>52</v>
+      </c>
+      <c r="G301">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B302">
+        <v>34</v>
+      </c>
+      <c r="C302">
+        <v>42</v>
+      </c>
+      <c r="D302">
+        <v>45</v>
+      </c>
+      <c r="E302">
+        <v>53</v>
+      </c>
+      <c r="F302">
+        <v>55</v>
+      </c>
+      <c r="G302">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B303">
+        <v>39</v>
+      </c>
+      <c r="C303">
+        <v>45</v>
+      </c>
+      <c r="D303">
+        <v>48</v>
+      </c>
+      <c r="E303">
+        <v>53</v>
+      </c>
+      <c r="F303">
+        <v>54</v>
+      </c>
+      <c r="G303">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7813,4 +9113,1024 @@
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F50" sqref="A1:F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="19.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>11</v>
+      </c>
+      <c r="D1">
+        <v>11</v>
+      </c>
+      <c r="E1">
+        <v>19</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>48</v>
+      </c>
+      <c r="D26">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>42</v>
+      </c>
+      <c r="F27">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>52</v>
+      </c>
+      <c r="E28">
+        <v>57</v>
+      </c>
+      <c r="F28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>41</v>
+      </c>
+      <c r="F29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <v>47</v>
+      </c>
+      <c r="F30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>53</v>
+      </c>
+      <c r="E32">
+        <v>56</v>
+      </c>
+      <c r="F32">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>47</v>
+      </c>
+      <c r="E33">
+        <v>53</v>
+      </c>
+      <c r="F33">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>53</v>
+      </c>
+      <c r="F34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>41</v>
+      </c>
+      <c r="E35">
+        <v>44</v>
+      </c>
+      <c r="F35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>43</v>
+      </c>
+      <c r="E36">
+        <v>57</v>
+      </c>
+      <c r="F36">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <v>43</v>
+      </c>
+      <c r="E37">
+        <v>46</v>
+      </c>
+      <c r="F37">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>49</v>
+      </c>
+      <c r="D38">
+        <v>51</v>
+      </c>
+      <c r="E38">
+        <v>56</v>
+      </c>
+      <c r="F38">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>33</v>
+      </c>
+      <c r="C39">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <v>57</v>
+      </c>
+      <c r="F39">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>52</v>
+      </c>
+      <c r="F40">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>44</v>
+      </c>
+      <c r="D41">
+        <v>45</v>
+      </c>
+      <c r="E41">
+        <v>47</v>
+      </c>
+      <c r="F41">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42">
+        <v>39</v>
+      </c>
+      <c r="E42">
+        <v>43</v>
+      </c>
+      <c r="F42">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>48</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>51</v>
+      </c>
+      <c r="F43">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>46</v>
+      </c>
+      <c r="D44">
+        <v>49</v>
+      </c>
+      <c r="E44">
+        <v>56</v>
+      </c>
+      <c r="F44">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>33</v>
+      </c>
+      <c r="C45">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>40</v>
+      </c>
+      <c r="E45">
+        <v>51</v>
+      </c>
+      <c r="F45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>31</v>
+      </c>
+      <c r="B46">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>35</v>
+      </c>
+      <c r="D46">
+        <v>41</v>
+      </c>
+      <c r="E46">
+        <v>52</v>
+      </c>
+      <c r="F46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>34</v>
+      </c>
+      <c r="B47">
+        <v>38</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>41</v>
+      </c>
+      <c r="E47">
+        <v>44</v>
+      </c>
+      <c r="F47">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>42</v>
+      </c>
+      <c r="D48">
+        <v>52</v>
+      </c>
+      <c r="E48">
+        <v>52</v>
+      </c>
+      <c r="F48">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>34</v>
+      </c>
+      <c r="B49">
+        <v>42</v>
+      </c>
+      <c r="C49">
+        <v>45</v>
+      </c>
+      <c r="D49">
+        <v>53</v>
+      </c>
+      <c r="E49">
+        <v>55</v>
+      </c>
+      <c r="F49">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>39</v>
+      </c>
+      <c r="B50">
+        <v>45</v>
+      </c>
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>53</v>
+      </c>
+      <c r="E50">
+        <v>54</v>
+      </c>
+      <c r="F50">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/pronto/jogos.xlsx
+++ b/pronto/jogos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28740" windowHeight="12315"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="292">
   <si>
     <t>n1</t>
   </si>
@@ -818,154 +818,79 @@
     <t>jogo252</t>
   </si>
   <si>
-    <t>jogo253</t>
-  </si>
-  <si>
-    <t>jogo254</t>
-  </si>
-  <si>
-    <t>jogo255</t>
-  </si>
-  <si>
-    <t>jogo256</t>
-  </si>
-  <si>
-    <t>jogo257</t>
-  </si>
-  <si>
-    <t>jogo258</t>
-  </si>
-  <si>
-    <t>jogo259</t>
-  </si>
-  <si>
-    <t>jogo260</t>
-  </si>
-  <si>
-    <t>jogo261</t>
-  </si>
-  <si>
-    <t>jogo262</t>
-  </si>
-  <si>
-    <t>jogo263</t>
-  </si>
-  <si>
-    <t>jogo264</t>
-  </si>
-  <si>
-    <t>jogo265</t>
-  </si>
-  <si>
-    <t>jogo266</t>
-  </si>
-  <si>
-    <t>jogo267</t>
-  </si>
-  <si>
-    <t>jogo268</t>
-  </si>
-  <si>
-    <t>jogo269</t>
-  </si>
-  <si>
-    <t>jogo270</t>
-  </si>
-  <si>
-    <t>jogo271</t>
-  </si>
-  <si>
-    <t>jogo272</t>
-  </si>
-  <si>
-    <t>jogo273</t>
-  </si>
-  <si>
-    <t>jogo274</t>
-  </si>
-  <si>
-    <t>jogo275</t>
-  </si>
-  <si>
-    <t>jogo276</t>
-  </si>
-  <si>
-    <t>jogo277</t>
-  </si>
-  <si>
-    <t>jogo278</t>
-  </si>
-  <si>
-    <t>jogo279</t>
-  </si>
-  <si>
-    <t>jogo280</t>
-  </si>
-  <si>
-    <t>jogo281</t>
-  </si>
-  <si>
-    <t>jogo282</t>
-  </si>
-  <si>
-    <t>jogo283</t>
-  </si>
-  <si>
-    <t>jogo284</t>
-  </si>
-  <si>
-    <t>jogo285</t>
-  </si>
-  <si>
-    <t>jogo286</t>
-  </si>
-  <si>
-    <t>jogo287</t>
-  </si>
-  <si>
-    <t>jogo288</t>
-  </si>
-  <si>
-    <t>jogo289</t>
-  </si>
-  <si>
-    <t>jogo290</t>
-  </si>
-  <si>
-    <t>jogo291</t>
-  </si>
-  <si>
-    <t>jogo292</t>
-  </si>
-  <si>
-    <t>jogo293</t>
-  </si>
-  <si>
-    <t>jogo294</t>
-  </si>
-  <si>
-    <t>jogo295</t>
-  </si>
-  <si>
-    <t>jogo296</t>
-  </si>
-  <si>
-    <t>jogo297</t>
-  </si>
-  <si>
-    <t>jogo298</t>
-  </si>
-  <si>
-    <t>jogo299</t>
-  </si>
-  <si>
-    <t>jogo300</t>
-  </si>
-  <si>
-    <t>jogo301</t>
-  </si>
-  <si>
-    <t>jogo302</t>
+    <t>jogo 145701</t>
+  </si>
+  <si>
+    <t>jogo 145704</t>
+  </si>
+  <si>
+    <t>jogo 145707</t>
+  </si>
+  <si>
+    <t>jogo 145711</t>
+  </si>
+  <si>
+    <t>jogo 145645</t>
+  </si>
+  <si>
+    <t>jogo 145731</t>
+  </si>
+  <si>
+    <t>jogo 145734</t>
+  </si>
+  <si>
+    <t>jogo 145737</t>
+  </si>
+  <si>
+    <t>jogo 145740</t>
+  </si>
+  <si>
+    <t>jogo 145714</t>
+  </si>
+  <si>
+    <t>jogo 145619</t>
+  </si>
+  <si>
+    <t>jogo 145616</t>
+  </si>
+  <si>
+    <t>jogo 145613</t>
+  </si>
+  <si>
+    <t>jogo 145609</t>
+  </si>
+  <si>
+    <t>jogo 145606</t>
+  </si>
+  <si>
+    <t>jogo 145603</t>
+  </si>
+  <si>
+    <t>jogo 145600</t>
+  </si>
+  <si>
+    <t>jogo 145658</t>
+  </si>
+  <si>
+    <t>jogo 145655</t>
+  </si>
+  <si>
+    <t>jogo 145651</t>
+  </si>
+  <si>
+    <t>jogo 145648</t>
+  </si>
+  <si>
+    <t>jogo 145556</t>
+  </si>
+  <si>
+    <t>jogo 145553</t>
+  </si>
+  <si>
+    <t>jogo 145550</t>
+  </si>
+  <si>
+    <t>jogo 145728</t>
   </si>
 </sst>
 </file>
@@ -1028,16 +953,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,9 +969,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1067,23 +1006,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1097,19 +1022,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1120,22 +1043,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,13 +1082,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1164,9 +1090,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,31 +1106,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,7 +1142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,13 +1154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,7 +1172,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,13 +1196,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,85 +1280,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,11 +1300,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,15 +1377,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1457,166 +1397,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1949,10 +1874,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P303"/>
+  <dimension ref="A1:P503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="I304" sqref="I304"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S226" sqref="S226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7963,870 +7888,870 @@
         <v>267</v>
       </c>
       <c r="B254">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C254">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D254">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E254">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F254">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G254">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B255">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C255">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D255">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E255">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F255">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G255">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B256">
         <v>1</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D256">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E256">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F256">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G256">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <v>9</v>
+      </c>
+      <c r="D257">
+        <v>12</v>
+      </c>
+      <c r="E257">
         <v>4</v>
       </c>
-      <c r="C257">
-        <v>7</v>
-      </c>
-      <c r="D257">
-        <v>8</v>
-      </c>
-      <c r="E257">
-        <v>13</v>
-      </c>
       <c r="F257">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G257">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C258">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D258">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E258">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F258">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G258">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B259">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C259">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D259">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E259">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F259">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G259">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B260">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C260">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D260">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E260">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F260">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G260">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C261">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D261">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E261">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F261">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G261">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B262">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C262">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D262">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E262">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F262">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G262">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B263">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C263">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D263">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E263">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F263">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G263">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C264">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D264">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E264">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F264">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G264">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B265">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D265">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E265">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F265">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="G265">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B266">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C266">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D266">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E266">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F266">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G266">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B267">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C267">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D267">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E267">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F267">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G267">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C268">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D268">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E268">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F268">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G268">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B269">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C269">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D269">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E269">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F269">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G269">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B270">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C270">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D270">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E270">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F270">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G270">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C271">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D271">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E271">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F271">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G271">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="B272">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C272">
         <v>9</v>
       </c>
       <c r="D272">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E272">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F272">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G272">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D273">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E273">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F273">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G273">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="1" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="B274">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C274">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D274">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E274">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F274">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G274">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="1" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C275">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D275">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E275">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F275">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G275">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="1" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C276">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D276">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E276">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F276">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G276">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="1" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="B277">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C277">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D277">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E277">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F277">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G277">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="1" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C278">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D278">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E278">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F278">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G278">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="1" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="B279">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C279">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D279">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E279">
+        <v>39</v>
+      </c>
+      <c r="F279">
         <v>49</v>
       </c>
-      <c r="F279">
-        <v>50</v>
-      </c>
       <c r="G279">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="1" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B280">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C280">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D280">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E280">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F280">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G280">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="1" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B281">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C281">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D281">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E281">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F281">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G281">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="1" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="B282">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C282">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D282">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E282">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F282">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G282">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="1" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B283">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C283">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D283">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E283">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F283">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G283">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="1" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="B284">
+        <v>18</v>
+      </c>
+      <c r="C284">
+        <v>30</v>
+      </c>
+      <c r="D284">
         <v>36</v>
       </c>
-      <c r="C284">
-        <v>39</v>
-      </c>
-      <c r="D284">
-        <v>44</v>
-      </c>
       <c r="E284">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F284">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G284">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="1" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="B285">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C285">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D285">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E285">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F285">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G285">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="1" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B286">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C286">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D286">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E286">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F286">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G286">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="B287">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C287">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D287">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E287">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F287">
         <v>53</v>
       </c>
       <c r="G287">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="1" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C288">
+        <v>17</v>
+      </c>
+      <c r="D288">
+        <v>29</v>
+      </c>
+      <c r="E288">
+        <v>36</v>
+      </c>
+      <c r="F288">
+        <v>37</v>
+      </c>
+      <c r="G288">
         <v>38</v>
-      </c>
-      <c r="D288">
-        <v>40</v>
-      </c>
-      <c r="E288">
-        <v>41</v>
-      </c>
-      <c r="F288">
-        <v>44</v>
-      </c>
-      <c r="G288">
-        <v>45</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="1" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="B289">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C289">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D289">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E289">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F289">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G289">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="1" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="B290">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C290">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D290">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E290">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F290">
         <v>46</v>
       </c>
       <c r="G290">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="1" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="B291">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C291">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D291">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E291">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F291">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G291">
         <v>59</v>
@@ -8834,278 +8759,4878 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="1" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B292">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C292">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D292">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E292">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F292">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G292">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="1" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="B293">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C293">
+        <v>34</v>
+      </c>
+      <c r="D293">
         <v>40</v>
       </c>
-      <c r="D293">
-        <v>41</v>
-      </c>
       <c r="E293">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F293">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G293">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="1" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B294">
+        <v>21</v>
+      </c>
+      <c r="C294">
+        <v>28</v>
+      </c>
+      <c r="D294">
         <v>33</v>
       </c>
-      <c r="C294">
-        <v>43</v>
-      </c>
-      <c r="D294">
-        <v>44</v>
-      </c>
       <c r="E294">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F294">
+        <v>46</v>
+      </c>
+      <c r="G294">
         <v>47</v>
-      </c>
-      <c r="G294">
-        <v>57</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="1" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B295">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C295">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D295">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E295">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F295">
         <v>43</v>
       </c>
       <c r="G295">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="1" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="B296">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C296">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D296">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E296">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F296">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G296">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="1" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="B297">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C297">
+        <v>8</v>
+      </c>
+      <c r="D297">
+        <v>11</v>
+      </c>
+      <c r="E297">
+        <v>31</v>
+      </c>
+      <c r="F297">
+        <v>34</v>
+      </c>
+      <c r="G297">
         <v>41</v>
-      </c>
-      <c r="D297">
-        <v>46</v>
-      </c>
-      <c r="E297">
-        <v>49</v>
-      </c>
-      <c r="F297">
-        <v>56</v>
-      </c>
-      <c r="G297">
-        <v>58</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="1" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="B298">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C298">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D298">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E298">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F298">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G298">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="1" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="B299">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C299">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D299">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E299">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F299">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G299">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="1" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="B300">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C300">
+        <v>22</v>
+      </c>
+      <c r="D300">
+        <v>25</v>
+      </c>
+      <c r="E300">
+        <v>30</v>
+      </c>
+      <c r="F300">
         <v>38</v>
       </c>
-      <c r="D300">
-        <v>40</v>
-      </c>
-      <c r="E300">
-        <v>41</v>
-      </c>
-      <c r="F300">
+      <c r="G300">
         <v>44</v>
-      </c>
-      <c r="G300">
-        <v>59</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="1" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="B301">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C301">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D301">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E301">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F301">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G301">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="1" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="B302">
+        <v>10</v>
+      </c>
+      <c r="C302">
+        <v>17</v>
+      </c>
+      <c r="D302">
+        <v>26</v>
+      </c>
+      <c r="E302">
+        <v>27</v>
+      </c>
+      <c r="F302">
         <v>34</v>
       </c>
-      <c r="C302">
-        <v>42</v>
-      </c>
-      <c r="D302">
-        <v>45</v>
-      </c>
-      <c r="E302">
-        <v>53</v>
-      </c>
-      <c r="F302">
-        <v>55</v>
-      </c>
       <c r="G302">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="1" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>6</v>
+      </c>
+      <c r="D303">
+        <v>27</v>
+      </c>
+      <c r="E303">
+        <v>28</v>
+      </c>
+      <c r="F303">
+        <v>41</v>
+      </c>
+      <c r="G303">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>272</v>
+      </c>
+      <c r="B304">
+        <v>6</v>
+      </c>
+      <c r="C304">
+        <v>9</v>
+      </c>
+      <c r="D304">
+        <v>11</v>
+      </c>
+      <c r="E304">
+        <v>20</v>
+      </c>
+      <c r="F304">
+        <v>40</v>
+      </c>
+      <c r="G304">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>272</v>
+      </c>
+      <c r="B305">
+        <v>17</v>
+      </c>
+      <c r="C305">
+        <v>29</v>
+      </c>
+      <c r="D305">
+        <v>42</v>
+      </c>
+      <c r="E305">
+        <v>46</v>
+      </c>
+      <c r="F305">
+        <v>48</v>
+      </c>
+      <c r="G305">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>272</v>
+      </c>
+      <c r="B306">
+        <v>12</v>
+      </c>
+      <c r="C306">
+        <v>30</v>
+      </c>
+      <c r="D306">
+        <v>35</v>
+      </c>
+      <c r="E306">
+        <v>40</v>
+      </c>
+      <c r="F306">
+        <v>41</v>
+      </c>
+      <c r="G306">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>272</v>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <v>8</v>
+      </c>
+      <c r="D307">
+        <v>45</v>
+      </c>
+      <c r="E307">
+        <v>50</v>
+      </c>
+      <c r="F307">
+        <v>53</v>
+      </c>
+      <c r="G307">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>272</v>
+      </c>
+      <c r="B308">
+        <v>23</v>
+      </c>
+      <c r="C308">
+        <v>26</v>
+      </c>
+      <c r="D308">
+        <v>35</v>
+      </c>
+      <c r="E308">
+        <v>40</v>
+      </c>
+      <c r="F308">
+        <v>44</v>
+      </c>
+      <c r="G308">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>272</v>
+      </c>
+      <c r="B309">
+        <v>11</v>
+      </c>
+      <c r="C309">
+        <v>19</v>
+      </c>
+      <c r="D309">
+        <v>35</v>
+      </c>
+      <c r="E309">
+        <v>43</v>
+      </c>
+      <c r="F309">
+        <v>45</v>
+      </c>
+      <c r="G309">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>272</v>
+      </c>
+      <c r="B310">
+        <v>4</v>
+      </c>
+      <c r="C310">
+        <v>18</v>
+      </c>
+      <c r="D310">
+        <v>26</v>
+      </c>
+      <c r="E310">
+        <v>33</v>
+      </c>
+      <c r="F310">
         <v>39</v>
       </c>
-      <c r="C303">
+      <c r="G310">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>272</v>
+      </c>
+      <c r="B311">
+        <v>7</v>
+      </c>
+      <c r="C311">
+        <v>14</v>
+      </c>
+      <c r="D311">
+        <v>20</v>
+      </c>
+      <c r="E311">
+        <v>21</v>
+      </c>
+      <c r="F311">
+        <v>25</v>
+      </c>
+      <c r="G311">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>272</v>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312">
+        <v>15</v>
+      </c>
+      <c r="D312">
+        <v>44</v>
+      </c>
+      <c r="E312">
+        <v>46</v>
+      </c>
+      <c r="F312">
+        <v>49</v>
+      </c>
+      <c r="G312">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>272</v>
+      </c>
+      <c r="B313">
+        <v>7</v>
+      </c>
+      <c r="C313">
+        <v>12</v>
+      </c>
+      <c r="D313">
+        <v>37</v>
+      </c>
+      <c r="E313">
+        <v>43</v>
+      </c>
+      <c r="F313">
+        <v>50</v>
+      </c>
+      <c r="G313">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>273</v>
+      </c>
+      <c r="B314">
+        <v>12</v>
+      </c>
+      <c r="C314">
+        <v>19</v>
+      </c>
+      <c r="D314">
+        <v>30</v>
+      </c>
+      <c r="E314">
+        <v>36</v>
+      </c>
+      <c r="F314">
         <v>45</v>
       </c>
-      <c r="D303">
+      <c r="G314">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>273</v>
+      </c>
+      <c r="B315">
+        <v>11</v>
+      </c>
+      <c r="C315">
+        <v>28</v>
+      </c>
+      <c r="D315">
         <v>48</v>
       </c>
-      <c r="E303">
+      <c r="E315">
+        <v>50</v>
+      </c>
+      <c r="F315">
+        <v>58</v>
+      </c>
+      <c r="G315">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>273</v>
+      </c>
+      <c r="B316">
+        <v>5</v>
+      </c>
+      <c r="C316">
+        <v>20</v>
+      </c>
+      <c r="D316">
+        <v>23</v>
+      </c>
+      <c r="E316">
+        <v>25</v>
+      </c>
+      <c r="F316">
+        <v>36</v>
+      </c>
+      <c r="G316">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>273</v>
+      </c>
+      <c r="B317">
+        <v>8</v>
+      </c>
+      <c r="C317">
+        <v>17</v>
+      </c>
+      <c r="D317">
+        <v>35</v>
+      </c>
+      <c r="E317">
+        <v>37</v>
+      </c>
+      <c r="F317">
+        <v>41</v>
+      </c>
+      <c r="G317">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>273</v>
+      </c>
+      <c r="B318">
+        <v>17</v>
+      </c>
+      <c r="C318">
+        <v>23</v>
+      </c>
+      <c r="D318">
+        <v>44</v>
+      </c>
+      <c r="E318">
+        <v>50</v>
+      </c>
+      <c r="F318">
+        <v>51</v>
+      </c>
+      <c r="G318">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>273</v>
+      </c>
+      <c r="B319">
+        <v>18</v>
+      </c>
+      <c r="C319">
+        <v>29</v>
+      </c>
+      <c r="D319">
+        <v>38</v>
+      </c>
+      <c r="E319">
+        <v>51</v>
+      </c>
+      <c r="F319">
         <v>53</v>
       </c>
-      <c r="F303">
+      <c r="G319">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" t="s">
+        <v>273</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>7</v>
+      </c>
+      <c r="D320">
+        <v>17</v>
+      </c>
+      <c r="E320">
+        <v>36</v>
+      </c>
+      <c r="F320">
+        <v>46</v>
+      </c>
+      <c r="G320">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>273</v>
+      </c>
+      <c r="B321">
+        <v>9</v>
+      </c>
+      <c r="C321">
+        <v>28</v>
+      </c>
+      <c r="D321">
+        <v>33</v>
+      </c>
+      <c r="E321">
+        <v>36</v>
+      </c>
+      <c r="F321">
         <v>54</v>
       </c>
-      <c r="G303">
+      <c r="G321">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>273</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>19</v>
+      </c>
+      <c r="D322">
+        <v>20</v>
+      </c>
+      <c r="E322">
+        <v>24</v>
+      </c>
+      <c r="F322">
+        <v>29</v>
+      </c>
+      <c r="G322">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" t="s">
+        <v>273</v>
+      </c>
+      <c r="B323">
+        <v>4</v>
+      </c>
+      <c r="C323">
+        <v>10</v>
+      </c>
+      <c r="D323">
+        <v>15</v>
+      </c>
+      <c r="E323">
+        <v>24</v>
+      </c>
+      <c r="F323">
+        <v>25</v>
+      </c>
+      <c r="G323">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" t="s">
+        <v>274</v>
+      </c>
+      <c r="B324">
+        <v>3</v>
+      </c>
+      <c r="C324">
+        <v>9</v>
+      </c>
+      <c r="D324">
+        <v>16</v>
+      </c>
+      <c r="E324">
+        <v>30</v>
+      </c>
+      <c r="F324">
+        <v>36</v>
+      </c>
+      <c r="G324">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" t="s">
+        <v>274</v>
+      </c>
+      <c r="B325">
+        <v>7</v>
+      </c>
+      <c r="C325">
+        <v>8</v>
+      </c>
+      <c r="D325">
+        <v>9</v>
+      </c>
+      <c r="E325">
+        <v>28</v>
+      </c>
+      <c r="F325">
+        <v>53</v>
+      </c>
+      <c r="G325">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" t="s">
+        <v>274</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+      <c r="C326">
+        <v>3</v>
+      </c>
+      <c r="D326">
+        <v>27</v>
+      </c>
+      <c r="E326">
+        <v>35</v>
+      </c>
+      <c r="F326">
+        <v>43</v>
+      </c>
+      <c r="G326">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" t="s">
+        <v>274</v>
+      </c>
+      <c r="B327">
+        <v>13</v>
+      </c>
+      <c r="C327">
+        <v>18</v>
+      </c>
+      <c r="D327">
+        <v>21</v>
+      </c>
+      <c r="E327">
+        <v>25</v>
+      </c>
+      <c r="F327">
+        <v>53</v>
+      </c>
+      <c r="G327">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" t="s">
+        <v>274</v>
+      </c>
+      <c r="B328">
+        <v>17</v>
+      </c>
+      <c r="C328">
+        <v>32</v>
+      </c>
+      <c r="D328">
+        <v>34</v>
+      </c>
+      <c r="E328">
+        <v>35</v>
+      </c>
+      <c r="F328">
+        <v>36</v>
+      </c>
+      <c r="G328">
         <v>55</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" t="s">
+        <v>274</v>
+      </c>
+      <c r="B329">
+        <v>23</v>
+      </c>
+      <c r="C329">
+        <v>31</v>
+      </c>
+      <c r="D329">
+        <v>51</v>
+      </c>
+      <c r="E329">
+        <v>52</v>
+      </c>
+      <c r="F329">
+        <v>53</v>
+      </c>
+      <c r="G329">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" t="s">
+        <v>274</v>
+      </c>
+      <c r="B330">
+        <v>5</v>
+      </c>
+      <c r="C330">
+        <v>18</v>
+      </c>
+      <c r="D330">
+        <v>23</v>
+      </c>
+      <c r="E330">
+        <v>46</v>
+      </c>
+      <c r="F330">
+        <v>54</v>
+      </c>
+      <c r="G330">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" t="s">
+        <v>274</v>
+      </c>
+      <c r="B331">
+        <v>7</v>
+      </c>
+      <c r="C331">
+        <v>9</v>
+      </c>
+      <c r="D331">
+        <v>21</v>
+      </c>
+      <c r="E331">
+        <v>25</v>
+      </c>
+      <c r="F331">
+        <v>35</v>
+      </c>
+      <c r="G331">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" t="s">
+        <v>274</v>
+      </c>
+      <c r="B332">
+        <v>21</v>
+      </c>
+      <c r="C332">
+        <v>23</v>
+      </c>
+      <c r="D332">
+        <v>29</v>
+      </c>
+      <c r="E332">
+        <v>31</v>
+      </c>
+      <c r="F332">
+        <v>42</v>
+      </c>
+      <c r="G332">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" t="s">
+        <v>274</v>
+      </c>
+      <c r="B333">
+        <v>5</v>
+      </c>
+      <c r="C333">
+        <v>8</v>
+      </c>
+      <c r="D333">
+        <v>9</v>
+      </c>
+      <c r="E333">
+        <v>28</v>
+      </c>
+      <c r="F333">
+        <v>45</v>
+      </c>
+      <c r="G333">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" t="s">
+        <v>275</v>
+      </c>
+      <c r="B334">
+        <v>13</v>
+      </c>
+      <c r="C334">
+        <v>32</v>
+      </c>
+      <c r="D334">
+        <v>34</v>
+      </c>
+      <c r="E334">
+        <v>36</v>
+      </c>
+      <c r="F334">
+        <v>47</v>
+      </c>
+      <c r="G334">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" t="s">
+        <v>275</v>
+      </c>
+      <c r="B335">
+        <v>5</v>
+      </c>
+      <c r="C335">
+        <v>14</v>
+      </c>
+      <c r="D335">
+        <v>24</v>
+      </c>
+      <c r="E335">
+        <v>37</v>
+      </c>
+      <c r="F335">
+        <v>43</v>
+      </c>
+      <c r="G335">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" t="s">
+        <v>275</v>
+      </c>
+      <c r="B336">
+        <v>14</v>
+      </c>
+      <c r="C336">
+        <v>30</v>
+      </c>
+      <c r="D336">
+        <v>31</v>
+      </c>
+      <c r="E336">
+        <v>36</v>
+      </c>
+      <c r="F336">
+        <v>40</v>
+      </c>
+      <c r="G336">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" t="s">
+        <v>275</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337">
+        <v>7</v>
+      </c>
+      <c r="D337">
+        <v>8</v>
+      </c>
+      <c r="E337">
+        <v>47</v>
+      </c>
+      <c r="F337">
+        <v>52</v>
+      </c>
+      <c r="G337">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" t="s">
+        <v>275</v>
+      </c>
+      <c r="B338">
+        <v>2</v>
+      </c>
+      <c r="C338">
+        <v>7</v>
+      </c>
+      <c r="D338">
+        <v>9</v>
+      </c>
+      <c r="E338">
+        <v>15</v>
+      </c>
+      <c r="F338">
+        <v>36</v>
+      </c>
+      <c r="G338">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" t="s">
+        <v>275</v>
+      </c>
+      <c r="B339">
+        <v>13</v>
+      </c>
+      <c r="C339">
+        <v>14</v>
+      </c>
+      <c r="D339">
+        <v>21</v>
+      </c>
+      <c r="E339">
+        <v>30</v>
+      </c>
+      <c r="F339">
+        <v>36</v>
+      </c>
+      <c r="G339">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" t="s">
+        <v>275</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340">
+        <v>5</v>
+      </c>
+      <c r="D340">
+        <v>7</v>
+      </c>
+      <c r="E340">
+        <v>17</v>
+      </c>
+      <c r="F340">
+        <v>44</v>
+      </c>
+      <c r="G340">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" t="s">
+        <v>275</v>
+      </c>
+      <c r="B341">
+        <v>6</v>
+      </c>
+      <c r="C341">
+        <v>21</v>
+      </c>
+      <c r="D341">
+        <v>26</v>
+      </c>
+      <c r="E341">
+        <v>32</v>
+      </c>
+      <c r="F341">
+        <v>42</v>
+      </c>
+      <c r="G341">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" t="s">
+        <v>275</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342">
+        <v>12</v>
+      </c>
+      <c r="D342">
+        <v>15</v>
+      </c>
+      <c r="E342">
+        <v>27</v>
+      </c>
+      <c r="F342">
+        <v>38</v>
+      </c>
+      <c r="G342">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" t="s">
+        <v>275</v>
+      </c>
+      <c r="B343">
+        <v>4</v>
+      </c>
+      <c r="C343">
+        <v>24</v>
+      </c>
+      <c r="D343">
+        <v>34</v>
+      </c>
+      <c r="E343">
+        <v>36</v>
+      </c>
+      <c r="F343">
+        <v>47</v>
+      </c>
+      <c r="G343">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" t="s">
+        <v>276</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>21</v>
+      </c>
+      <c r="D344">
+        <v>26</v>
+      </c>
+      <c r="E344">
+        <v>31</v>
+      </c>
+      <c r="F344">
+        <v>33</v>
+      </c>
+      <c r="G344">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" t="s">
+        <v>276</v>
+      </c>
+      <c r="B345">
+        <v>10</v>
+      </c>
+      <c r="C345">
+        <v>21</v>
+      </c>
+      <c r="D345">
+        <v>22</v>
+      </c>
+      <c r="E345">
+        <v>35</v>
+      </c>
+      <c r="F345">
+        <v>49</v>
+      </c>
+      <c r="G345">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" t="s">
+        <v>276</v>
+      </c>
+      <c r="B346">
+        <v>13</v>
+      </c>
+      <c r="C346">
+        <v>17</v>
+      </c>
+      <c r="D346">
+        <v>23</v>
+      </c>
+      <c r="E346">
+        <v>42</v>
+      </c>
+      <c r="F346">
+        <v>45</v>
+      </c>
+      <c r="G346">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" t="s">
+        <v>276</v>
+      </c>
+      <c r="B347">
+        <v>12</v>
+      </c>
+      <c r="C347">
+        <v>14</v>
+      </c>
+      <c r="D347">
+        <v>18</v>
+      </c>
+      <c r="E347">
+        <v>49</v>
+      </c>
+      <c r="F347">
+        <v>51</v>
+      </c>
+      <c r="G347">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" t="s">
+        <v>276</v>
+      </c>
+      <c r="B348">
+        <v>6</v>
+      </c>
+      <c r="C348">
+        <v>9</v>
+      </c>
+      <c r="D348">
+        <v>11</v>
+      </c>
+      <c r="E348">
+        <v>17</v>
+      </c>
+      <c r="F348">
+        <v>27</v>
+      </c>
+      <c r="G348">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" t="s">
+        <v>276</v>
+      </c>
+      <c r="B349">
+        <v>4</v>
+      </c>
+      <c r="C349">
+        <v>7</v>
+      </c>
+      <c r="D349">
+        <v>33</v>
+      </c>
+      <c r="E349">
+        <v>42</v>
+      </c>
+      <c r="F349">
+        <v>49</v>
+      </c>
+      <c r="G349">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" t="s">
+        <v>276</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+      <c r="C350">
+        <v>7</v>
+      </c>
+      <c r="D350">
+        <v>8</v>
+      </c>
+      <c r="E350">
+        <v>11</v>
+      </c>
+      <c r="F350">
+        <v>16</v>
+      </c>
+      <c r="G350">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" t="s">
+        <v>276</v>
+      </c>
+      <c r="B351">
+        <v>28</v>
+      </c>
+      <c r="C351">
+        <v>34</v>
+      </c>
+      <c r="D351">
+        <v>37</v>
+      </c>
+      <c r="E351">
+        <v>48</v>
+      </c>
+      <c r="F351">
+        <v>49</v>
+      </c>
+      <c r="G351">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" t="s">
+        <v>276</v>
+      </c>
+      <c r="B352">
+        <v>19</v>
+      </c>
+      <c r="C352">
+        <v>23</v>
+      </c>
+      <c r="D352">
+        <v>26</v>
+      </c>
+      <c r="E352">
+        <v>30</v>
+      </c>
+      <c r="F352">
+        <v>47</v>
+      </c>
+      <c r="G352">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" t="s">
+        <v>276</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>10</v>
+      </c>
+      <c r="D353">
+        <v>21</v>
+      </c>
+      <c r="E353">
+        <v>29</v>
+      </c>
+      <c r="F353">
+        <v>40</v>
+      </c>
+      <c r="G353">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" t="s">
+        <v>277</v>
+      </c>
+      <c r="B354">
+        <v>16</v>
+      </c>
+      <c r="C354">
+        <v>20</v>
+      </c>
+      <c r="D354">
+        <v>28</v>
+      </c>
+      <c r="E354">
+        <v>34</v>
+      </c>
+      <c r="F354">
+        <v>36</v>
+      </c>
+      <c r="G354">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" t="s">
+        <v>277</v>
+      </c>
+      <c r="B355">
+        <v>2</v>
+      </c>
+      <c r="C355">
+        <v>16</v>
+      </c>
+      <c r="D355">
+        <v>26</v>
+      </c>
+      <c r="E355">
+        <v>27</v>
+      </c>
+      <c r="F355">
+        <v>36</v>
+      </c>
+      <c r="G355">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" t="s">
+        <v>277</v>
+      </c>
+      <c r="B356">
+        <v>11</v>
+      </c>
+      <c r="C356">
+        <v>24</v>
+      </c>
+      <c r="D356">
+        <v>32</v>
+      </c>
+      <c r="E356">
+        <v>40</v>
+      </c>
+      <c r="F356">
+        <v>41</v>
+      </c>
+      <c r="G356">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" t="s">
+        <v>277</v>
+      </c>
+      <c r="B357">
+        <v>35</v>
+      </c>
+      <c r="C357">
+        <v>40</v>
+      </c>
+      <c r="D357">
+        <v>42</v>
+      </c>
+      <c r="E357">
+        <v>48</v>
+      </c>
+      <c r="F357">
+        <v>55</v>
+      </c>
+      <c r="G357">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" t="s">
+        <v>277</v>
+      </c>
+      <c r="B358">
+        <v>5</v>
+      </c>
+      <c r="C358">
+        <v>14</v>
+      </c>
+      <c r="D358">
+        <v>23</v>
+      </c>
+      <c r="E358">
+        <v>34</v>
+      </c>
+      <c r="F358">
+        <v>35</v>
+      </c>
+      <c r="G358">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" t="s">
+        <v>277</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <v>3</v>
+      </c>
+      <c r="E359">
+        <v>18</v>
+      </c>
+      <c r="F359">
+        <v>53</v>
+      </c>
+      <c r="G359">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" t="s">
+        <v>277</v>
+      </c>
+      <c r="B360">
+        <v>6</v>
+      </c>
+      <c r="C360">
+        <v>28</v>
+      </c>
+      <c r="D360">
+        <v>37</v>
+      </c>
+      <c r="E360">
+        <v>39</v>
+      </c>
+      <c r="F360">
+        <v>45</v>
+      </c>
+      <c r="G360">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" t="s">
+        <v>277</v>
+      </c>
+      <c r="B361">
+        <v>9</v>
+      </c>
+      <c r="C361">
+        <v>11</v>
+      </c>
+      <c r="D361">
+        <v>24</v>
+      </c>
+      <c r="E361">
+        <v>31</v>
+      </c>
+      <c r="F361">
+        <v>34</v>
+      </c>
+      <c r="G361">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" t="s">
+        <v>277</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+      <c r="C362">
+        <v>7</v>
+      </c>
+      <c r="D362">
+        <v>15</v>
+      </c>
+      <c r="E362">
+        <v>24</v>
+      </c>
+      <c r="F362">
+        <v>39</v>
+      </c>
+      <c r="G362">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" t="s">
+        <v>277</v>
+      </c>
+      <c r="B363">
+        <v>18</v>
+      </c>
+      <c r="C363">
+        <v>21</v>
+      </c>
+      <c r="D363">
+        <v>24</v>
+      </c>
+      <c r="E363">
+        <v>39</v>
+      </c>
+      <c r="F363">
+        <v>44</v>
+      </c>
+      <c r="G363">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" t="s">
+        <v>278</v>
+      </c>
+      <c r="B364">
+        <v>21</v>
+      </c>
+      <c r="C364">
+        <v>27</v>
+      </c>
+      <c r="D364">
+        <v>32</v>
+      </c>
+      <c r="E364">
+        <v>41</v>
+      </c>
+      <c r="F364">
+        <v>51</v>
+      </c>
+      <c r="G364">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" t="s">
+        <v>278</v>
+      </c>
+      <c r="B365">
+        <v>12</v>
+      </c>
+      <c r="C365">
+        <v>28</v>
+      </c>
+      <c r="D365">
+        <v>32</v>
+      </c>
+      <c r="E365">
+        <v>38</v>
+      </c>
+      <c r="F365">
+        <v>53</v>
+      </c>
+      <c r="G365">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" t="s">
+        <v>278</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>2</v>
+      </c>
+      <c r="D366">
+        <v>24</v>
+      </c>
+      <c r="E366">
+        <v>31</v>
+      </c>
+      <c r="F366">
+        <v>33</v>
+      </c>
+      <c r="G366">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" t="s">
+        <v>278</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>2</v>
+      </c>
+      <c r="D367">
+        <v>26</v>
+      </c>
+      <c r="E367">
+        <v>30</v>
+      </c>
+      <c r="F367">
+        <v>41</v>
+      </c>
+      <c r="G367">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" t="s">
+        <v>278</v>
+      </c>
+      <c r="B368">
+        <v>7</v>
+      </c>
+      <c r="C368">
+        <v>10</v>
+      </c>
+      <c r="D368">
+        <v>23</v>
+      </c>
+      <c r="E368">
+        <v>25</v>
+      </c>
+      <c r="F368">
+        <v>46</v>
+      </c>
+      <c r="G368">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" t="s">
+        <v>278</v>
+      </c>
+      <c r="B369">
+        <v>19</v>
+      </c>
+      <c r="C369">
+        <v>23</v>
+      </c>
+      <c r="D369">
+        <v>26</v>
+      </c>
+      <c r="E369">
+        <v>32</v>
+      </c>
+      <c r="F369">
+        <v>45</v>
+      </c>
+      <c r="G369">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" t="s">
+        <v>278</v>
+      </c>
+      <c r="B370">
+        <v>3</v>
+      </c>
+      <c r="C370">
+        <v>11</v>
+      </c>
+      <c r="D370">
+        <v>14</v>
+      </c>
+      <c r="E370">
+        <v>17</v>
+      </c>
+      <c r="F370">
+        <v>40</v>
+      </c>
+      <c r="G370">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" t="s">
+        <v>278</v>
+      </c>
+      <c r="B371">
+        <v>6</v>
+      </c>
+      <c r="C371">
+        <v>16</v>
+      </c>
+      <c r="D371">
+        <v>36</v>
+      </c>
+      <c r="E371">
+        <v>37</v>
+      </c>
+      <c r="F371">
+        <v>41</v>
+      </c>
+      <c r="G371">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" t="s">
+        <v>278</v>
+      </c>
+      <c r="B372">
+        <v>4</v>
+      </c>
+      <c r="C372">
+        <v>9</v>
+      </c>
+      <c r="D372">
+        <v>12</v>
+      </c>
+      <c r="E372">
+        <v>14</v>
+      </c>
+      <c r="F372">
+        <v>44</v>
+      </c>
+      <c r="G372">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" t="s">
+        <v>278</v>
+      </c>
+      <c r="B373">
+        <v>4</v>
+      </c>
+      <c r="C373">
+        <v>25</v>
+      </c>
+      <c r="D373">
+        <v>27</v>
+      </c>
+      <c r="E373">
+        <v>45</v>
+      </c>
+      <c r="F373">
+        <v>48</v>
+      </c>
+      <c r="G373">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" t="s">
+        <v>279</v>
+      </c>
+      <c r="B374">
+        <v>8</v>
+      </c>
+      <c r="C374">
+        <v>24</v>
+      </c>
+      <c r="D374">
+        <v>44</v>
+      </c>
+      <c r="E374">
+        <v>48</v>
+      </c>
+      <c r="F374">
+        <v>57</v>
+      </c>
+      <c r="G374">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" t="s">
+        <v>279</v>
+      </c>
+      <c r="B375">
+        <v>22</v>
+      </c>
+      <c r="C375">
+        <v>23</v>
+      </c>
+      <c r="D375">
+        <v>36</v>
+      </c>
+      <c r="E375">
+        <v>38</v>
+      </c>
+      <c r="F375">
+        <v>40</v>
+      </c>
+      <c r="G375">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" t="s">
+        <v>279</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376">
+        <v>8</v>
+      </c>
+      <c r="D376">
+        <v>13</v>
+      </c>
+      <c r="E376">
+        <v>46</v>
+      </c>
+      <c r="F376">
+        <v>48</v>
+      </c>
+      <c r="G376">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" t="s">
+        <v>279</v>
+      </c>
+      <c r="B377">
+        <v>8</v>
+      </c>
+      <c r="C377">
+        <v>18</v>
+      </c>
+      <c r="D377">
+        <v>23</v>
+      </c>
+      <c r="E377">
+        <v>26</v>
+      </c>
+      <c r="F377">
+        <v>53</v>
+      </c>
+      <c r="G377">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" t="s">
+        <v>279</v>
+      </c>
+      <c r="B378">
+        <v>6</v>
+      </c>
+      <c r="C378">
+        <v>13</v>
+      </c>
+      <c r="D378">
+        <v>37</v>
+      </c>
+      <c r="E378">
+        <v>43</v>
+      </c>
+      <c r="F378">
+        <v>54</v>
+      </c>
+      <c r="G378">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" t="s">
+        <v>279</v>
+      </c>
+      <c r="B379">
+        <v>4</v>
+      </c>
+      <c r="C379">
+        <v>21</v>
+      </c>
+      <c r="D379">
+        <v>32</v>
+      </c>
+      <c r="E379">
+        <v>35</v>
+      </c>
+      <c r="F379">
+        <v>40</v>
+      </c>
+      <c r="G379">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" t="s">
+        <v>279</v>
+      </c>
+      <c r="B380">
+        <v>8</v>
+      </c>
+      <c r="C380">
+        <v>23</v>
+      </c>
+      <c r="D380">
+        <v>27</v>
+      </c>
+      <c r="E380">
+        <v>46</v>
+      </c>
+      <c r="F380">
+        <v>47</v>
+      </c>
+      <c r="G380">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" t="s">
+        <v>279</v>
+      </c>
+      <c r="B381">
+        <v>16</v>
+      </c>
+      <c r="C381">
+        <v>31</v>
+      </c>
+      <c r="D381">
+        <v>32</v>
+      </c>
+      <c r="E381">
+        <v>52</v>
+      </c>
+      <c r="F381">
+        <v>55</v>
+      </c>
+      <c r="G381">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" t="s">
+        <v>279</v>
+      </c>
+      <c r="B382">
+        <v>22</v>
+      </c>
+      <c r="C382">
+        <v>34</v>
+      </c>
+      <c r="D382">
+        <v>40</v>
+      </c>
+      <c r="E382">
+        <v>44</v>
+      </c>
+      <c r="F382">
+        <v>49</v>
+      </c>
+      <c r="G382">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" t="s">
+        <v>279</v>
+      </c>
+      <c r="B383">
+        <v>10</v>
+      </c>
+      <c r="C383">
+        <v>13</v>
+      </c>
+      <c r="D383">
+        <v>22</v>
+      </c>
+      <c r="E383">
+        <v>25</v>
+      </c>
+      <c r="F383">
+        <v>38</v>
+      </c>
+      <c r="G383">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" t="s">
+        <v>280</v>
+      </c>
+      <c r="B384">
+        <v>12</v>
+      </c>
+      <c r="C384">
+        <v>17</v>
+      </c>
+      <c r="D384">
+        <v>24</v>
+      </c>
+      <c r="E384">
+        <v>44</v>
+      </c>
+      <c r="F384">
+        <v>49</v>
+      </c>
+      <c r="G384">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" t="s">
+        <v>280</v>
+      </c>
+      <c r="B385">
+        <v>3</v>
+      </c>
+      <c r="C385">
+        <v>9</v>
+      </c>
+      <c r="D385">
+        <v>13</v>
+      </c>
+      <c r="E385">
+        <v>26</v>
+      </c>
+      <c r="F385">
+        <v>40</v>
+      </c>
+      <c r="G385">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" t="s">
+        <v>280</v>
+      </c>
+      <c r="B386">
+        <v>6</v>
+      </c>
+      <c r="C386">
+        <v>26</v>
+      </c>
+      <c r="D386">
+        <v>35</v>
+      </c>
+      <c r="E386">
+        <v>36</v>
+      </c>
+      <c r="F386">
+        <v>37</v>
+      </c>
+      <c r="G386">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" t="s">
+        <v>280</v>
+      </c>
+      <c r="B387">
+        <v>9</v>
+      </c>
+      <c r="C387">
+        <v>19</v>
+      </c>
+      <c r="D387">
+        <v>20</v>
+      </c>
+      <c r="E387">
+        <v>31</v>
+      </c>
+      <c r="F387">
+        <v>35</v>
+      </c>
+      <c r="G387">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" t="s">
+        <v>280</v>
+      </c>
+      <c r="B388">
+        <v>15</v>
+      </c>
+      <c r="C388">
+        <v>16</v>
+      </c>
+      <c r="D388">
+        <v>20</v>
+      </c>
+      <c r="E388">
+        <v>23</v>
+      </c>
+      <c r="F388">
+        <v>24</v>
+      </c>
+      <c r="G388">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" t="s">
+        <v>280</v>
+      </c>
+      <c r="B389">
+        <v>14</v>
+      </c>
+      <c r="C389">
+        <v>19</v>
+      </c>
+      <c r="D389">
+        <v>20</v>
+      </c>
+      <c r="E389">
+        <v>29</v>
+      </c>
+      <c r="F389">
+        <v>31</v>
+      </c>
+      <c r="G389">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" t="s">
+        <v>280</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>10</v>
+      </c>
+      <c r="D390">
+        <v>12</v>
+      </c>
+      <c r="E390">
+        <v>20</v>
+      </c>
+      <c r="F390">
+        <v>27</v>
+      </c>
+      <c r="G390">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" t="s">
+        <v>280</v>
+      </c>
+      <c r="B391">
+        <v>10</v>
+      </c>
+      <c r="C391">
+        <v>21</v>
+      </c>
+      <c r="D391">
+        <v>23</v>
+      </c>
+      <c r="E391">
+        <v>32</v>
+      </c>
+      <c r="F391">
+        <v>36</v>
+      </c>
+      <c r="G391">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" t="s">
+        <v>280</v>
+      </c>
+      <c r="B392">
+        <v>27</v>
+      </c>
+      <c r="C392">
+        <v>32</v>
+      </c>
+      <c r="D392">
+        <v>42</v>
+      </c>
+      <c r="E392">
+        <v>45</v>
+      </c>
+      <c r="F392">
+        <v>50</v>
+      </c>
+      <c r="G392">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" t="s">
+        <v>280</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393">
+        <v>4</v>
+      </c>
+      <c r="D393">
+        <v>14</v>
+      </c>
+      <c r="E393">
+        <v>37</v>
+      </c>
+      <c r="F393">
+        <v>52</v>
+      </c>
+      <c r="G393">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" t="s">
+        <v>281</v>
+      </c>
+      <c r="B394">
+        <v>13</v>
+      </c>
+      <c r="C394">
+        <v>26</v>
+      </c>
+      <c r="D394">
+        <v>32</v>
+      </c>
+      <c r="E394">
+        <v>33</v>
+      </c>
+      <c r="F394">
+        <v>49</v>
+      </c>
+      <c r="G394">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" t="s">
+        <v>281</v>
+      </c>
+      <c r="B395">
+        <v>11</v>
+      </c>
+      <c r="C395">
+        <v>18</v>
+      </c>
+      <c r="D395">
+        <v>24</v>
+      </c>
+      <c r="E395">
+        <v>49</v>
+      </c>
+      <c r="F395">
+        <v>54</v>
+      </c>
+      <c r="G395">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" t="s">
+        <v>281</v>
+      </c>
+      <c r="B396">
+        <v>2</v>
+      </c>
+      <c r="C396">
+        <v>13</v>
+      </c>
+      <c r="D396">
+        <v>14</v>
+      </c>
+      <c r="E396">
+        <v>23</v>
+      </c>
+      <c r="F396">
+        <v>24</v>
+      </c>
+      <c r="G396">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" t="s">
+        <v>281</v>
+      </c>
+      <c r="B397">
+        <v>10</v>
+      </c>
+      <c r="C397">
+        <v>13</v>
+      </c>
+      <c r="D397">
+        <v>30</v>
+      </c>
+      <c r="E397">
+        <v>32</v>
+      </c>
+      <c r="F397">
+        <v>50</v>
+      </c>
+      <c r="G397">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" t="s">
+        <v>281</v>
+      </c>
+      <c r="B398">
+        <v>5</v>
+      </c>
+      <c r="C398">
+        <v>21</v>
+      </c>
+      <c r="D398">
+        <v>22</v>
+      </c>
+      <c r="E398">
+        <v>38</v>
+      </c>
+      <c r="F398">
+        <v>53</v>
+      </c>
+      <c r="G398">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" t="s">
+        <v>281</v>
+      </c>
+      <c r="B399">
+        <v>16</v>
+      </c>
+      <c r="C399">
+        <v>18</v>
+      </c>
+      <c r="D399">
+        <v>28</v>
+      </c>
+      <c r="E399">
+        <v>45</v>
+      </c>
+      <c r="F399">
+        <v>55</v>
+      </c>
+      <c r="G399">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" t="s">
+        <v>281</v>
+      </c>
+      <c r="B400">
+        <v>10</v>
+      </c>
+      <c r="C400">
+        <v>14</v>
+      </c>
+      <c r="D400">
+        <v>23</v>
+      </c>
+      <c r="E400">
+        <v>26</v>
+      </c>
+      <c r="F400">
+        <v>48</v>
+      </c>
+      <c r="G400">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" t="s">
+        <v>281</v>
+      </c>
+      <c r="B401">
+        <v>17</v>
+      </c>
+      <c r="C401">
+        <v>21</v>
+      </c>
+      <c r="D401">
+        <v>25</v>
+      </c>
+      <c r="E401">
+        <v>30</v>
+      </c>
+      <c r="F401">
+        <v>32</v>
+      </c>
+      <c r="G401">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" t="s">
+        <v>281</v>
+      </c>
+      <c r="B402">
+        <v>17</v>
+      </c>
+      <c r="C402">
+        <v>23</v>
+      </c>
+      <c r="D402">
+        <v>36</v>
+      </c>
+      <c r="E402">
+        <v>43</v>
+      </c>
+      <c r="F402">
+        <v>48</v>
+      </c>
+      <c r="G402">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" t="s">
+        <v>281</v>
+      </c>
+      <c r="B403">
+        <v>12</v>
+      </c>
+      <c r="C403">
+        <v>14</v>
+      </c>
+      <c r="D403">
+        <v>16</v>
+      </c>
+      <c r="E403">
+        <v>22</v>
+      </c>
+      <c r="F403">
+        <v>43</v>
+      </c>
+      <c r="G403">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" t="s">
+        <v>282</v>
+      </c>
+      <c r="B404">
+        <v>5</v>
+      </c>
+      <c r="C404">
+        <v>16</v>
+      </c>
+      <c r="D404">
+        <v>20</v>
+      </c>
+      <c r="E404">
+        <v>25</v>
+      </c>
+      <c r="F404">
+        <v>28</v>
+      </c>
+      <c r="G404">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" t="s">
+        <v>282</v>
+      </c>
+      <c r="B405">
+        <v>6</v>
+      </c>
+      <c r="C405">
+        <v>7</v>
+      </c>
+      <c r="D405">
+        <v>12</v>
+      </c>
+      <c r="E405">
+        <v>19</v>
+      </c>
+      <c r="F405">
+        <v>25</v>
+      </c>
+      <c r="G405">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" t="s">
+        <v>282</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+      <c r="D406">
+        <v>27</v>
+      </c>
+      <c r="E406">
+        <v>43</v>
+      </c>
+      <c r="F406">
+        <v>45</v>
+      </c>
+      <c r="G406">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" t="s">
+        <v>282</v>
+      </c>
+      <c r="B407">
+        <v>5</v>
+      </c>
+      <c r="C407">
+        <v>19</v>
+      </c>
+      <c r="D407">
+        <v>21</v>
+      </c>
+      <c r="E407">
+        <v>32</v>
+      </c>
+      <c r="F407">
+        <v>52</v>
+      </c>
+      <c r="G407">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" t="s">
+        <v>282</v>
+      </c>
+      <c r="B408">
+        <v>5</v>
+      </c>
+      <c r="C408">
+        <v>6</v>
+      </c>
+      <c r="D408">
+        <v>35</v>
+      </c>
+      <c r="E408">
+        <v>39</v>
+      </c>
+      <c r="F408">
+        <v>42</v>
+      </c>
+      <c r="G408">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409" t="s">
+        <v>282</v>
+      </c>
+      <c r="B409">
+        <v>3</v>
+      </c>
+      <c r="C409">
+        <v>7</v>
+      </c>
+      <c r="D409">
+        <v>21</v>
+      </c>
+      <c r="E409">
+        <v>42</v>
+      </c>
+      <c r="F409">
+        <v>55</v>
+      </c>
+      <c r="G409">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" t="s">
+        <v>282</v>
+      </c>
+      <c r="B410">
+        <v>14</v>
+      </c>
+      <c r="C410">
+        <v>40</v>
+      </c>
+      <c r="D410">
+        <v>43</v>
+      </c>
+      <c r="E410">
+        <v>51</v>
+      </c>
+      <c r="F410">
+        <v>58</v>
+      </c>
+      <c r="G410">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" t="s">
+        <v>282</v>
+      </c>
+      <c r="B411">
+        <v>18</v>
+      </c>
+      <c r="C411">
+        <v>19</v>
+      </c>
+      <c r="D411">
+        <v>24</v>
+      </c>
+      <c r="E411">
+        <v>25</v>
+      </c>
+      <c r="F411">
+        <v>36</v>
+      </c>
+      <c r="G411">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" t="s">
+        <v>282</v>
+      </c>
+      <c r="B412">
+        <v>3</v>
+      </c>
+      <c r="C412">
+        <v>8</v>
+      </c>
+      <c r="D412">
+        <v>9</v>
+      </c>
+      <c r="E412">
+        <v>24</v>
+      </c>
+      <c r="F412">
+        <v>38</v>
+      </c>
+      <c r="G412">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" t="s">
+        <v>282</v>
+      </c>
+      <c r="B413">
+        <v>3</v>
+      </c>
+      <c r="C413">
+        <v>14</v>
+      </c>
+      <c r="D413">
+        <v>18</v>
+      </c>
+      <c r="E413">
+        <v>25</v>
+      </c>
+      <c r="F413">
+        <v>52</v>
+      </c>
+      <c r="G413">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" t="s">
+        <v>283</v>
+      </c>
+      <c r="B414">
+        <v>8</v>
+      </c>
+      <c r="C414">
+        <v>18</v>
+      </c>
+      <c r="D414">
+        <v>20</v>
+      </c>
+      <c r="E414">
+        <v>30</v>
+      </c>
+      <c r="F414">
+        <v>37</v>
+      </c>
+      <c r="G414">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" t="s">
+        <v>283</v>
+      </c>
+      <c r="B415">
+        <v>9</v>
+      </c>
+      <c r="C415">
+        <v>12</v>
+      </c>
+      <c r="D415">
+        <v>17</v>
+      </c>
+      <c r="E415">
+        <v>40</v>
+      </c>
+      <c r="F415">
+        <v>43</v>
+      </c>
+      <c r="G415">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" t="s">
+        <v>283</v>
+      </c>
+      <c r="B416">
+        <v>8</v>
+      </c>
+      <c r="C416">
+        <v>18</v>
+      </c>
+      <c r="D416">
+        <v>22</v>
+      </c>
+      <c r="E416">
+        <v>26</v>
+      </c>
+      <c r="F416">
+        <v>38</v>
+      </c>
+      <c r="G416">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417" t="s">
+        <v>283</v>
+      </c>
+      <c r="B417">
+        <v>5</v>
+      </c>
+      <c r="C417">
+        <v>10</v>
+      </c>
+      <c r="D417">
+        <v>13</v>
+      </c>
+      <c r="E417">
+        <v>27</v>
+      </c>
+      <c r="F417">
+        <v>50</v>
+      </c>
+      <c r="G417">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418" t="s">
+        <v>283</v>
+      </c>
+      <c r="B418">
+        <v>2</v>
+      </c>
+      <c r="C418">
+        <v>8</v>
+      </c>
+      <c r="D418">
+        <v>18</v>
+      </c>
+      <c r="E418">
+        <v>27</v>
+      </c>
+      <c r="F418">
+        <v>36</v>
+      </c>
+      <c r="G418">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419" t="s">
+        <v>283</v>
+      </c>
+      <c r="B419">
+        <v>6</v>
+      </c>
+      <c r="C419">
+        <v>13</v>
+      </c>
+      <c r="D419">
+        <v>29</v>
+      </c>
+      <c r="E419">
+        <v>35</v>
+      </c>
+      <c r="F419">
+        <v>44</v>
+      </c>
+      <c r="G419">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" t="s">
+        <v>283</v>
+      </c>
+      <c r="B420">
+        <v>26</v>
+      </c>
+      <c r="C420">
+        <v>33</v>
+      </c>
+      <c r="D420">
+        <v>36</v>
+      </c>
+      <c r="E420">
+        <v>43</v>
+      </c>
+      <c r="F420">
+        <v>44</v>
+      </c>
+      <c r="G420">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" t="s">
+        <v>283</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+      <c r="C421">
+        <v>25</v>
+      </c>
+      <c r="D421">
+        <v>37</v>
+      </c>
+      <c r="E421">
+        <v>45</v>
+      </c>
+      <c r="F421">
+        <v>47</v>
+      </c>
+      <c r="G421">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" t="s">
+        <v>283</v>
+      </c>
+      <c r="B422">
+        <v>8</v>
+      </c>
+      <c r="C422">
+        <v>24</v>
+      </c>
+      <c r="D422">
+        <v>40</v>
+      </c>
+      <c r="E422">
+        <v>46</v>
+      </c>
+      <c r="F422">
+        <v>50</v>
+      </c>
+      <c r="G422">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" t="s">
+        <v>283</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+      <c r="C423">
+        <v>10</v>
+      </c>
+      <c r="D423">
+        <v>29</v>
+      </c>
+      <c r="E423">
+        <v>35</v>
+      </c>
+      <c r="F423">
+        <v>40</v>
+      </c>
+      <c r="G423">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" t="s">
+        <v>284</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>27</v>
+      </c>
+      <c r="D424">
+        <v>32</v>
+      </c>
+      <c r="E424">
+        <v>49</v>
+      </c>
+      <c r="F424">
+        <v>54</v>
+      </c>
+      <c r="G424">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" t="s">
+        <v>284</v>
+      </c>
+      <c r="B425">
+        <v>3</v>
+      </c>
+      <c r="C425">
+        <v>11</v>
+      </c>
+      <c r="D425">
+        <v>13</v>
+      </c>
+      <c r="E425">
+        <v>15</v>
+      </c>
+      <c r="F425">
+        <v>35</v>
+      </c>
+      <c r="G425">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" t="s">
+        <v>284</v>
+      </c>
+      <c r="B426">
+        <v>3</v>
+      </c>
+      <c r="C426">
+        <v>4</v>
+      </c>
+      <c r="D426">
+        <v>12</v>
+      </c>
+      <c r="E426">
+        <v>19</v>
+      </c>
+      <c r="F426">
+        <v>22</v>
+      </c>
+      <c r="G426">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" t="s">
+        <v>284</v>
+      </c>
+      <c r="B427">
+        <v>16</v>
+      </c>
+      <c r="C427">
+        <v>18</v>
+      </c>
+      <c r="D427">
+        <v>21</v>
+      </c>
+      <c r="E427">
+        <v>25</v>
+      </c>
+      <c r="F427">
+        <v>33</v>
+      </c>
+      <c r="G427">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" t="s">
+        <v>284</v>
+      </c>
+      <c r="B428">
+        <v>7</v>
+      </c>
+      <c r="C428">
+        <v>10</v>
+      </c>
+      <c r="D428">
+        <v>12</v>
+      </c>
+      <c r="E428">
+        <v>19</v>
+      </c>
+      <c r="F428">
+        <v>25</v>
+      </c>
+      <c r="G428">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" t="s">
+        <v>284</v>
+      </c>
+      <c r="B429">
+        <v>5</v>
+      </c>
+      <c r="C429">
+        <v>9</v>
+      </c>
+      <c r="D429">
+        <v>17</v>
+      </c>
+      <c r="E429">
+        <v>36</v>
+      </c>
+      <c r="F429">
+        <v>43</v>
+      </c>
+      <c r="G429">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" t="s">
+        <v>284</v>
+      </c>
+      <c r="B430">
+        <v>2</v>
+      </c>
+      <c r="C430">
+        <v>9</v>
+      </c>
+      <c r="D430">
+        <v>10</v>
+      </c>
+      <c r="E430">
+        <v>19</v>
+      </c>
+      <c r="F430">
+        <v>48</v>
+      </c>
+      <c r="G430">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" t="s">
+        <v>284</v>
+      </c>
+      <c r="B431">
+        <v>14</v>
+      </c>
+      <c r="C431">
+        <v>37</v>
+      </c>
+      <c r="D431">
+        <v>40</v>
+      </c>
+      <c r="E431">
+        <v>54</v>
+      </c>
+      <c r="F431">
+        <v>55</v>
+      </c>
+      <c r="G431">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" t="s">
+        <v>284</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>4</v>
+      </c>
+      <c r="D432">
+        <v>18</v>
+      </c>
+      <c r="E432">
+        <v>40</v>
+      </c>
+      <c r="F432">
+        <v>50</v>
+      </c>
+      <c r="G432">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" t="s">
+        <v>284</v>
+      </c>
+      <c r="B433">
+        <v>5</v>
+      </c>
+      <c r="C433">
+        <v>25</v>
+      </c>
+      <c r="D433">
+        <v>40</v>
+      </c>
+      <c r="E433">
+        <v>52</v>
+      </c>
+      <c r="F433">
+        <v>58</v>
+      </c>
+      <c r="G433">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" t="s">
+        <v>285</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434">
+        <v>19</v>
+      </c>
+      <c r="E434">
+        <v>23</v>
+      </c>
+      <c r="F434">
+        <v>34</v>
+      </c>
+      <c r="G434">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" t="s">
+        <v>285</v>
+      </c>
+      <c r="B435">
+        <v>18</v>
+      </c>
+      <c r="C435">
+        <v>26</v>
+      </c>
+      <c r="D435">
+        <v>38</v>
+      </c>
+      <c r="E435">
+        <v>43</v>
+      </c>
+      <c r="F435">
+        <v>52</v>
+      </c>
+      <c r="G435">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" t="s">
+        <v>285</v>
+      </c>
+      <c r="B436">
+        <v>3</v>
+      </c>
+      <c r="C436">
+        <v>8</v>
+      </c>
+      <c r="D436">
+        <v>20</v>
+      </c>
+      <c r="E436">
+        <v>23</v>
+      </c>
+      <c r="F436">
+        <v>32</v>
+      </c>
+      <c r="G436">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" t="s">
+        <v>285</v>
+      </c>
+      <c r="B437">
+        <v>3</v>
+      </c>
+      <c r="C437">
+        <v>7</v>
+      </c>
+      <c r="D437">
+        <v>20</v>
+      </c>
+      <c r="E437">
+        <v>24</v>
+      </c>
+      <c r="F437">
+        <v>34</v>
+      </c>
+      <c r="G437">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" t="s">
+        <v>285</v>
+      </c>
+      <c r="B438">
+        <v>7</v>
+      </c>
+      <c r="C438">
+        <v>18</v>
+      </c>
+      <c r="D438">
+        <v>19</v>
+      </c>
+      <c r="E438">
+        <v>22</v>
+      </c>
+      <c r="F438">
+        <v>29</v>
+      </c>
+      <c r="G438">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" t="s">
+        <v>285</v>
+      </c>
+      <c r="B439">
+        <v>13</v>
+      </c>
+      <c r="C439">
+        <v>31</v>
+      </c>
+      <c r="D439">
+        <v>32</v>
+      </c>
+      <c r="E439">
+        <v>41</v>
+      </c>
+      <c r="F439">
+        <v>44</v>
+      </c>
+      <c r="G439">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" t="s">
+        <v>285</v>
+      </c>
+      <c r="B440">
+        <v>6</v>
+      </c>
+      <c r="C440">
+        <v>9</v>
+      </c>
+      <c r="D440">
+        <v>13</v>
+      </c>
+      <c r="E440">
+        <v>19</v>
+      </c>
+      <c r="F440">
+        <v>21</v>
+      </c>
+      <c r="G440">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" t="s">
+        <v>285</v>
+      </c>
+      <c r="B441">
+        <v>21</v>
+      </c>
+      <c r="C441">
+        <v>22</v>
+      </c>
+      <c r="D441">
+        <v>30</v>
+      </c>
+      <c r="E441">
+        <v>38</v>
+      </c>
+      <c r="F441">
+        <v>52</v>
+      </c>
+      <c r="G441">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" t="s">
+        <v>285</v>
+      </c>
+      <c r="B442">
+        <v>2</v>
+      </c>
+      <c r="C442">
+        <v>5</v>
+      </c>
+      <c r="D442">
+        <v>16</v>
+      </c>
+      <c r="E442">
+        <v>44</v>
+      </c>
+      <c r="F442">
+        <v>57</v>
+      </c>
+      <c r="G442">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" t="s">
+        <v>285</v>
+      </c>
+      <c r="B443">
+        <v>14</v>
+      </c>
+      <c r="C443">
+        <v>15</v>
+      </c>
+      <c r="D443">
+        <v>25</v>
+      </c>
+      <c r="E443">
+        <v>35</v>
+      </c>
+      <c r="F443">
+        <v>43</v>
+      </c>
+      <c r="G443">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" t="s">
+        <v>286</v>
+      </c>
+      <c r="B444">
+        <v>6</v>
+      </c>
+      <c r="C444">
+        <v>8</v>
+      </c>
+      <c r="D444">
+        <v>10</v>
+      </c>
+      <c r="E444">
+        <v>26</v>
+      </c>
+      <c r="F444">
+        <v>47</v>
+      </c>
+      <c r="G444">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" t="s">
+        <v>286</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+      <c r="C445">
+        <v>8</v>
+      </c>
+      <c r="D445">
+        <v>12</v>
+      </c>
+      <c r="E445">
+        <v>35</v>
+      </c>
+      <c r="F445">
+        <v>36</v>
+      </c>
+      <c r="G445">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" t="s">
+        <v>286</v>
+      </c>
+      <c r="B446">
+        <v>10</v>
+      </c>
+      <c r="C446">
+        <v>14</v>
+      </c>
+      <c r="D446">
+        <v>22</v>
+      </c>
+      <c r="E446">
+        <v>23</v>
+      </c>
+      <c r="F446">
+        <v>43</v>
+      </c>
+      <c r="G446">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" t="s">
+        <v>286</v>
+      </c>
+      <c r="B447">
+        <v>14</v>
+      </c>
+      <c r="C447">
+        <v>17</v>
+      </c>
+      <c r="D447">
+        <v>36</v>
+      </c>
+      <c r="E447">
+        <v>48</v>
+      </c>
+      <c r="F447">
+        <v>50</v>
+      </c>
+      <c r="G447">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" t="s">
+        <v>286</v>
+      </c>
+      <c r="B448">
+        <v>7</v>
+      </c>
+      <c r="C448">
+        <v>13</v>
+      </c>
+      <c r="D448">
+        <v>16</v>
+      </c>
+      <c r="E448">
+        <v>31</v>
+      </c>
+      <c r="F448">
+        <v>51</v>
+      </c>
+      <c r="G448">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" t="s">
+        <v>286</v>
+      </c>
+      <c r="B449">
+        <v>6</v>
+      </c>
+      <c r="C449">
+        <v>8</v>
+      </c>
+      <c r="D449">
+        <v>38</v>
+      </c>
+      <c r="E449">
+        <v>49</v>
+      </c>
+      <c r="F449">
+        <v>55</v>
+      </c>
+      <c r="G449">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" t="s">
+        <v>286</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>8</v>
+      </c>
+      <c r="D450">
+        <v>19</v>
+      </c>
+      <c r="E450">
+        <v>35</v>
+      </c>
+      <c r="F450">
+        <v>42</v>
+      </c>
+      <c r="G450">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" t="s">
+        <v>286</v>
+      </c>
+      <c r="B451">
+        <v>4</v>
+      </c>
+      <c r="C451">
+        <v>7</v>
+      </c>
+      <c r="D451">
+        <v>13</v>
+      </c>
+      <c r="E451">
+        <v>29</v>
+      </c>
+      <c r="F451">
+        <v>35</v>
+      </c>
+      <c r="G451">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
+      <c r="A452" t="s">
+        <v>286</v>
+      </c>
+      <c r="B452">
+        <v>7</v>
+      </c>
+      <c r="C452">
+        <v>10</v>
+      </c>
+      <c r="D452">
+        <v>12</v>
+      </c>
+      <c r="E452">
+        <v>16</v>
+      </c>
+      <c r="F452">
+        <v>20</v>
+      </c>
+      <c r="G452">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
+      <c r="A453" t="s">
+        <v>286</v>
+      </c>
+      <c r="B453">
+        <v>5</v>
+      </c>
+      <c r="C453">
+        <v>16</v>
+      </c>
+      <c r="D453">
+        <v>33</v>
+      </c>
+      <c r="E453">
+        <v>42</v>
+      </c>
+      <c r="F453">
+        <v>46</v>
+      </c>
+      <c r="G453">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7">
+      <c r="A454" t="s">
+        <v>287</v>
+      </c>
+      <c r="B454">
+        <v>7</v>
+      </c>
+      <c r="C454">
+        <v>14</v>
+      </c>
+      <c r="D454">
+        <v>22</v>
+      </c>
+      <c r="E454">
+        <v>29</v>
+      </c>
+      <c r="F454">
+        <v>46</v>
+      </c>
+      <c r="G454">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
+      <c r="A455" t="s">
+        <v>287</v>
+      </c>
+      <c r="B455">
+        <v>13</v>
+      </c>
+      <c r="C455">
+        <v>24</v>
+      </c>
+      <c r="D455">
+        <v>25</v>
+      </c>
+      <c r="E455">
+        <v>35</v>
+      </c>
+      <c r="F455">
+        <v>45</v>
+      </c>
+      <c r="G455">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
+      <c r="A456" t="s">
+        <v>287</v>
+      </c>
+      <c r="B456">
+        <v>10</v>
+      </c>
+      <c r="C456">
+        <v>12</v>
+      </c>
+      <c r="D456">
+        <v>18</v>
+      </c>
+      <c r="E456">
+        <v>50</v>
+      </c>
+      <c r="F456">
+        <v>55</v>
+      </c>
+      <c r="G456">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
+      <c r="A457" t="s">
+        <v>287</v>
+      </c>
+      <c r="B457">
+        <v>8</v>
+      </c>
+      <c r="C457">
+        <v>12</v>
+      </c>
+      <c r="D457">
+        <v>27</v>
+      </c>
+      <c r="E457">
+        <v>40</v>
+      </c>
+      <c r="F457">
+        <v>47</v>
+      </c>
+      <c r="G457">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
+      <c r="A458" t="s">
+        <v>287</v>
+      </c>
+      <c r="B458">
+        <v>20</v>
+      </c>
+      <c r="C458">
+        <v>23</v>
+      </c>
+      <c r="D458">
+        <v>27</v>
+      </c>
+      <c r="E458">
+        <v>31</v>
+      </c>
+      <c r="F458">
+        <v>43</v>
+      </c>
+      <c r="G458">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
+      <c r="A459" t="s">
+        <v>287</v>
+      </c>
+      <c r="B459">
+        <v>5</v>
+      </c>
+      <c r="C459">
+        <v>33</v>
+      </c>
+      <c r="D459">
+        <v>34</v>
+      </c>
+      <c r="E459">
+        <v>35</v>
+      </c>
+      <c r="F459">
+        <v>44</v>
+      </c>
+      <c r="G459">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
+      <c r="A460" t="s">
+        <v>287</v>
+      </c>
+      <c r="B460">
+        <v>12</v>
+      </c>
+      <c r="C460">
+        <v>16</v>
+      </c>
+      <c r="D460">
+        <v>37</v>
+      </c>
+      <c r="E460">
+        <v>43</v>
+      </c>
+      <c r="F460">
+        <v>46</v>
+      </c>
+      <c r="G460">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
+      <c r="A461" t="s">
+        <v>287</v>
+      </c>
+      <c r="B461">
+        <v>4</v>
+      </c>
+      <c r="C461">
+        <v>20</v>
+      </c>
+      <c r="D461">
+        <v>21</v>
+      </c>
+      <c r="E461">
+        <v>24</v>
+      </c>
+      <c r="F461">
+        <v>28</v>
+      </c>
+      <c r="G461">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
+      <c r="A462" t="s">
+        <v>287</v>
+      </c>
+      <c r="B462">
+        <v>18</v>
+      </c>
+      <c r="C462">
+        <v>30</v>
+      </c>
+      <c r="D462">
+        <v>31</v>
+      </c>
+      <c r="E462">
+        <v>32</v>
+      </c>
+      <c r="F462">
+        <v>50</v>
+      </c>
+      <c r="G462">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
+      <c r="A463" t="s">
+        <v>287</v>
+      </c>
+      <c r="B463">
+        <v>10</v>
+      </c>
+      <c r="C463">
+        <v>12</v>
+      </c>
+      <c r="D463">
+        <v>37</v>
+      </c>
+      <c r="E463">
+        <v>39</v>
+      </c>
+      <c r="F463">
+        <v>54</v>
+      </c>
+      <c r="G463">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7">
+      <c r="A464" t="s">
+        <v>288</v>
+      </c>
+      <c r="B464">
+        <v>2</v>
+      </c>
+      <c r="C464">
+        <v>27</v>
+      </c>
+      <c r="D464">
+        <v>30</v>
+      </c>
+      <c r="E464">
+        <v>40</v>
+      </c>
+      <c r="F464">
+        <v>46</v>
+      </c>
+      <c r="G464">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
+      <c r="A465" t="s">
+        <v>288</v>
+      </c>
+      <c r="B465">
+        <v>26</v>
+      </c>
+      <c r="C465">
+        <v>31</v>
+      </c>
+      <c r="D465">
+        <v>33</v>
+      </c>
+      <c r="E465">
+        <v>57</v>
+      </c>
+      <c r="F465">
+        <v>58</v>
+      </c>
+      <c r="G465">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
+      <c r="A466" t="s">
+        <v>288</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>3</v>
+      </c>
+      <c r="D466">
+        <v>5</v>
+      </c>
+      <c r="E466">
+        <v>7</v>
+      </c>
+      <c r="F466">
+        <v>18</v>
+      </c>
+      <c r="G466">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
+      <c r="A467" t="s">
+        <v>288</v>
+      </c>
+      <c r="B467">
+        <v>19</v>
+      </c>
+      <c r="C467">
+        <v>22</v>
+      </c>
+      <c r="D467">
+        <v>23</v>
+      </c>
+      <c r="E467">
+        <v>40</v>
+      </c>
+      <c r="F467">
+        <v>53</v>
+      </c>
+      <c r="G467">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
+      <c r="A468" t="s">
+        <v>288</v>
+      </c>
+      <c r="B468">
+        <v>7</v>
+      </c>
+      <c r="C468">
+        <v>21</v>
+      </c>
+      <c r="D468">
+        <v>32</v>
+      </c>
+      <c r="E468">
+        <v>35</v>
+      </c>
+      <c r="F468">
+        <v>45</v>
+      </c>
+      <c r="G468">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
+      <c r="A469" t="s">
+        <v>288</v>
+      </c>
+      <c r="B469">
+        <v>4</v>
+      </c>
+      <c r="C469">
+        <v>11</v>
+      </c>
+      <c r="D469">
+        <v>20</v>
+      </c>
+      <c r="E469">
+        <v>40</v>
+      </c>
+      <c r="F469">
+        <v>42</v>
+      </c>
+      <c r="G469">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
+      <c r="A470" t="s">
+        <v>288</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>9</v>
+      </c>
+      <c r="D470">
+        <v>11</v>
+      </c>
+      <c r="E470">
+        <v>14</v>
+      </c>
+      <c r="F470">
+        <v>44</v>
+      </c>
+      <c r="G470">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
+      <c r="A471" t="s">
+        <v>288</v>
+      </c>
+      <c r="B471">
+        <v>25</v>
+      </c>
+      <c r="C471">
+        <v>34</v>
+      </c>
+      <c r="D471">
+        <v>40</v>
+      </c>
+      <c r="E471">
+        <v>43</v>
+      </c>
+      <c r="F471">
+        <v>52</v>
+      </c>
+      <c r="G471">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7">
+      <c r="A472" t="s">
+        <v>288</v>
+      </c>
+      <c r="B472">
+        <v>7</v>
+      </c>
+      <c r="C472">
+        <v>36</v>
+      </c>
+      <c r="D472">
+        <v>48</v>
+      </c>
+      <c r="E472">
+        <v>49</v>
+      </c>
+      <c r="F472">
+        <v>50</v>
+      </c>
+      <c r="G472">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7">
+      <c r="A473" t="s">
+        <v>288</v>
+      </c>
+      <c r="B473">
+        <v>7</v>
+      </c>
+      <c r="C473">
+        <v>18</v>
+      </c>
+      <c r="D473">
+        <v>33</v>
+      </c>
+      <c r="E473">
+        <v>37</v>
+      </c>
+      <c r="F473">
+        <v>38</v>
+      </c>
+      <c r="G473">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7">
+      <c r="A474" t="s">
+        <v>289</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>9</v>
+      </c>
+      <c r="D474">
+        <v>18</v>
+      </c>
+      <c r="E474">
+        <v>35</v>
+      </c>
+      <c r="F474">
+        <v>43</v>
+      </c>
+      <c r="G474">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7">
+      <c r="A475" t="s">
+        <v>289</v>
+      </c>
+      <c r="B475">
+        <v>4</v>
+      </c>
+      <c r="C475">
+        <v>18</v>
+      </c>
+      <c r="D475">
+        <v>31</v>
+      </c>
+      <c r="E475">
+        <v>33</v>
+      </c>
+      <c r="F475">
+        <v>34</v>
+      </c>
+      <c r="G475">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7">
+      <c r="A476" t="s">
+        <v>289</v>
+      </c>
+      <c r="B476">
+        <v>5</v>
+      </c>
+      <c r="C476">
+        <v>19</v>
+      </c>
+      <c r="D476">
+        <v>23</v>
+      </c>
+      <c r="E476">
+        <v>26</v>
+      </c>
+      <c r="F476">
+        <v>30</v>
+      </c>
+      <c r="G476">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7">
+      <c r="A477" t="s">
+        <v>289</v>
+      </c>
+      <c r="B477">
+        <v>10</v>
+      </c>
+      <c r="C477">
+        <v>20</v>
+      </c>
+      <c r="D477">
+        <v>21</v>
+      </c>
+      <c r="E477">
+        <v>27</v>
+      </c>
+      <c r="F477">
+        <v>30</v>
+      </c>
+      <c r="G477">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7">
+      <c r="A478" t="s">
+        <v>289</v>
+      </c>
+      <c r="B478">
+        <v>33</v>
+      </c>
+      <c r="C478">
+        <v>38</v>
+      </c>
+      <c r="D478">
+        <v>50</v>
+      </c>
+      <c r="E478">
+        <v>52</v>
+      </c>
+      <c r="F478">
+        <v>53</v>
+      </c>
+      <c r="G478">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
+      <c r="A479" t="s">
+        <v>289</v>
+      </c>
+      <c r="B479">
+        <v>2</v>
+      </c>
+      <c r="C479">
+        <v>6</v>
+      </c>
+      <c r="D479">
+        <v>20</v>
+      </c>
+      <c r="E479">
+        <v>34</v>
+      </c>
+      <c r="F479">
+        <v>35</v>
+      </c>
+      <c r="G479">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
+      <c r="A480" t="s">
+        <v>289</v>
+      </c>
+      <c r="B480">
+        <v>4</v>
+      </c>
+      <c r="C480">
+        <v>27</v>
+      </c>
+      <c r="D480">
+        <v>37</v>
+      </c>
+      <c r="E480">
+        <v>39</v>
+      </c>
+      <c r="F480">
+        <v>41</v>
+      </c>
+      <c r="G480">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7">
+      <c r="A481" t="s">
+        <v>289</v>
+      </c>
+      <c r="B481">
+        <v>19</v>
+      </c>
+      <c r="C481">
+        <v>31</v>
+      </c>
+      <c r="D481">
+        <v>33</v>
+      </c>
+      <c r="E481">
+        <v>52</v>
+      </c>
+      <c r="F481">
+        <v>54</v>
+      </c>
+      <c r="G481">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7">
+      <c r="A482" t="s">
+        <v>289</v>
+      </c>
+      <c r="B482">
+        <v>24</v>
+      </c>
+      <c r="C482">
+        <v>25</v>
+      </c>
+      <c r="D482">
+        <v>26</v>
+      </c>
+      <c r="E482">
+        <v>31</v>
+      </c>
+      <c r="F482">
+        <v>34</v>
+      </c>
+      <c r="G482">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7">
+      <c r="A483" t="s">
+        <v>289</v>
+      </c>
+      <c r="B483">
+        <v>23</v>
+      </c>
+      <c r="C483">
+        <v>28</v>
+      </c>
+      <c r="D483">
+        <v>31</v>
+      </c>
+      <c r="E483">
+        <v>32</v>
+      </c>
+      <c r="F483">
+        <v>43</v>
+      </c>
+      <c r="G483">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7">
+      <c r="A484" t="s">
+        <v>290</v>
+      </c>
+      <c r="B484">
+        <v>2</v>
+      </c>
+      <c r="C484">
+        <v>10</v>
+      </c>
+      <c r="D484">
+        <v>14</v>
+      </c>
+      <c r="E484">
+        <v>28</v>
+      </c>
+      <c r="F484">
+        <v>33</v>
+      </c>
+      <c r="G484">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7">
+      <c r="A485" t="s">
+        <v>290</v>
+      </c>
+      <c r="B485">
+        <v>6</v>
+      </c>
+      <c r="C485">
+        <v>9</v>
+      </c>
+      <c r="D485">
+        <v>12</v>
+      </c>
+      <c r="E485">
+        <v>19</v>
+      </c>
+      <c r="F485">
+        <v>32</v>
+      </c>
+      <c r="G485">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7">
+      <c r="A486" t="s">
+        <v>290</v>
+      </c>
+      <c r="B486">
+        <v>15</v>
+      </c>
+      <c r="C486">
+        <v>25</v>
+      </c>
+      <c r="D486">
+        <v>37</v>
+      </c>
+      <c r="E486">
+        <v>43</v>
+      </c>
+      <c r="F486">
+        <v>48</v>
+      </c>
+      <c r="G486">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7">
+      <c r="A487" t="s">
+        <v>290</v>
+      </c>
+      <c r="B487">
+        <v>9</v>
+      </c>
+      <c r="C487">
+        <v>14</v>
+      </c>
+      <c r="D487">
+        <v>17</v>
+      </c>
+      <c r="E487">
+        <v>41</v>
+      </c>
+      <c r="F487">
+        <v>55</v>
+      </c>
+      <c r="G487">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7">
+      <c r="A488" t="s">
+        <v>290</v>
+      </c>
+      <c r="B488">
+        <v>2</v>
+      </c>
+      <c r="C488">
+        <v>15</v>
+      </c>
+      <c r="D488">
+        <v>34</v>
+      </c>
+      <c r="E488">
+        <v>45</v>
+      </c>
+      <c r="F488">
+        <v>50</v>
+      </c>
+      <c r="G488">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7">
+      <c r="A489" t="s">
+        <v>290</v>
+      </c>
+      <c r="B489">
+        <v>6</v>
+      </c>
+      <c r="C489">
+        <v>17</v>
+      </c>
+      <c r="D489">
+        <v>20</v>
+      </c>
+      <c r="E489">
+        <v>23</v>
+      </c>
+      <c r="F489">
+        <v>31</v>
+      </c>
+      <c r="G489">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7">
+      <c r="A490" t="s">
+        <v>290</v>
+      </c>
+      <c r="B490">
+        <v>8</v>
+      </c>
+      <c r="C490">
+        <v>14</v>
+      </c>
+      <c r="D490">
+        <v>27</v>
+      </c>
+      <c r="E490">
+        <v>36</v>
+      </c>
+      <c r="F490">
+        <v>41</v>
+      </c>
+      <c r="G490">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7">
+      <c r="A491" t="s">
+        <v>290</v>
+      </c>
+      <c r="B491">
+        <v>17</v>
+      </c>
+      <c r="C491">
+        <v>28</v>
+      </c>
+      <c r="D491">
+        <v>35</v>
+      </c>
+      <c r="E491">
+        <v>50</v>
+      </c>
+      <c r="F491">
+        <v>52</v>
+      </c>
+      <c r="G491">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7">
+      <c r="A492" t="s">
+        <v>290</v>
+      </c>
+      <c r="B492">
+        <v>3</v>
+      </c>
+      <c r="C492">
+        <v>14</v>
+      </c>
+      <c r="D492">
+        <v>19</v>
+      </c>
+      <c r="E492">
+        <v>39</v>
+      </c>
+      <c r="F492">
+        <v>43</v>
+      </c>
+      <c r="G492">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7">
+      <c r="A493" t="s">
+        <v>290</v>
+      </c>
+      <c r="B493">
+        <v>10</v>
+      </c>
+      <c r="C493">
+        <v>38</v>
+      </c>
+      <c r="D493">
+        <v>41</v>
+      </c>
+      <c r="E493">
+        <v>54</v>
+      </c>
+      <c r="F493">
+        <v>55</v>
+      </c>
+      <c r="G493">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
+      <c r="A494" t="s">
+        <v>291</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
+        <v>11</v>
+      </c>
+      <c r="D494">
+        <v>14</v>
+      </c>
+      <c r="E494">
+        <v>23</v>
+      </c>
+      <c r="F494">
+        <v>34</v>
+      </c>
+      <c r="G494">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7">
+      <c r="A495" t="s">
+        <v>291</v>
+      </c>
+      <c r="B495">
+        <v>8</v>
+      </c>
+      <c r="C495">
+        <v>13</v>
+      </c>
+      <c r="D495">
+        <v>27</v>
+      </c>
+      <c r="E495">
+        <v>36</v>
+      </c>
+      <c r="F495">
+        <v>45</v>
+      </c>
+      <c r="G495">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7">
+      <c r="A496" t="s">
+        <v>291</v>
+      </c>
+      <c r="B496">
+        <v>3</v>
+      </c>
+      <c r="C496">
+        <v>5</v>
+      </c>
+      <c r="D496">
+        <v>8</v>
+      </c>
+      <c r="E496">
+        <v>16</v>
+      </c>
+      <c r="F496">
+        <v>21</v>
+      </c>
+      <c r="G496">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7">
+      <c r="A497" t="s">
+        <v>291</v>
+      </c>
+      <c r="B497">
+        <v>18</v>
+      </c>
+      <c r="C497">
+        <v>20</v>
+      </c>
+      <c r="D497">
+        <v>29</v>
+      </c>
+      <c r="E497">
+        <v>34</v>
+      </c>
+      <c r="F497">
+        <v>42</v>
+      </c>
+      <c r="G497">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7">
+      <c r="A498" t="s">
+        <v>291</v>
+      </c>
+      <c r="B498">
+        <v>11</v>
+      </c>
+      <c r="C498">
+        <v>19</v>
+      </c>
+      <c r="D498">
+        <v>23</v>
+      </c>
+      <c r="E498">
+        <v>31</v>
+      </c>
+      <c r="F498">
+        <v>51</v>
+      </c>
+      <c r="G498">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
+      <c r="A499" t="s">
+        <v>291</v>
+      </c>
+      <c r="B499">
+        <v>21</v>
+      </c>
+      <c r="C499">
+        <v>25</v>
+      </c>
+      <c r="D499">
+        <v>32</v>
+      </c>
+      <c r="E499">
+        <v>34</v>
+      </c>
+      <c r="F499">
+        <v>35</v>
+      </c>
+      <c r="G499">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7">
+      <c r="A500" t="s">
+        <v>291</v>
+      </c>
+      <c r="B500">
+        <v>30</v>
+      </c>
+      <c r="C500">
+        <v>31</v>
+      </c>
+      <c r="D500">
+        <v>34</v>
+      </c>
+      <c r="E500">
+        <v>43</v>
+      </c>
+      <c r="F500">
+        <v>44</v>
+      </c>
+      <c r="G500">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7">
+      <c r="A501" t="s">
+        <v>291</v>
+      </c>
+      <c r="B501">
+        <v>6</v>
+      </c>
+      <c r="C501">
+        <v>20</v>
+      </c>
+      <c r="D501">
+        <v>54</v>
+      </c>
+      <c r="E501">
+        <v>55</v>
+      </c>
+      <c r="F501">
+        <v>58</v>
+      </c>
+      <c r="G501">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7">
+      <c r="A502" t="s">
+        <v>291</v>
+      </c>
+      <c r="B502">
+        <v>7</v>
+      </c>
+      <c r="C502">
+        <v>21</v>
+      </c>
+      <c r="D502">
+        <v>23</v>
+      </c>
+      <c r="E502">
+        <v>31</v>
+      </c>
+      <c r="F502">
+        <v>40</v>
+      </c>
+      <c r="G502">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7">
+      <c r="A503" t="s">
+        <v>291</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+      <c r="C503">
+        <v>9</v>
+      </c>
+      <c r="D503">
+        <v>14</v>
+      </c>
+      <c r="E503">
+        <v>33</v>
+      </c>
+      <c r="F503">
+        <v>44</v>
+      </c>
+      <c r="G503">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/pronto/jogos.xlsx
+++ b/pronto/jogos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201C4FB4-3812-435D-AE8E-CB468BD30447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -896,14 +902,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,345 +953,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1299,253 +975,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1555,62 +989,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1868,25 +1261,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P503"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P555"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S226" sqref="S226"/>
+    <sheetView tabSelected="1" topLeftCell="A503" workbookViewId="0">
+      <selection activeCell="A504" sqref="A504"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" customWidth="1"/>
-    <col min="2" max="16" width="3.22222222222222" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="1:16">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1933,7 +1327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1956,7 +1350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +1373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2002,7 +1396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2025,7 +1419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2048,7 +1442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2071,7 +1465,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -2094,7 +1488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2117,7 +1511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:16">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2141,7 +1535,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" ht="17.25" spans="1:7">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -2164,7 +1558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:7">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -2187,7 +1581,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" ht="17.25" spans="1:7">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2210,7 +1604,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="1:7">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2233,7 +1627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" ht="17.25" spans="1:7">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2256,7 +1650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -6695,7 +6089,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:8">
       <c r="A209" s="1" t="s">
         <v>222</v>
       </c>
@@ -6718,7 +6112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:8">
       <c r="A210" s="1" t="s">
         <v>223</v>
       </c>
@@ -6741,7 +6135,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:8">
       <c r="A211" s="1" t="s">
         <v>224</v>
       </c>
@@ -6764,7 +6158,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:8">
       <c r="A212" s="1" t="s">
         <v>225</v>
       </c>
@@ -6787,7 +6181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:8">
       <c r="A213" s="1" t="s">
         <v>226</v>
       </c>
@@ -7096,7 +6490,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:16">
       <c r="A225" s="4" t="s">
         <v>238</v>
       </c>
@@ -7122,7 +6516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:16">
       <c r="A226" s="4" t="s">
         <v>239</v>
       </c>
@@ -7148,7 +6542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:16">
       <c r="A227" s="4" t="s">
         <v>240</v>
       </c>
@@ -7174,7 +6568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:16">
       <c r="A228" s="4" t="s">
         <v>241</v>
       </c>
@@ -7200,7 +6594,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:16">
       <c r="A229" s="4" t="s">
         <v>242</v>
       </c>
@@ -7229,7 +6623,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:16">
       <c r="A230" s="4" t="s">
         <v>243</v>
       </c>
@@ -7258,7 +6652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:16">
       <c r="A231" s="4" t="s">
         <v>244</v>
       </c>
@@ -7287,7 +6681,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:16">
       <c r="A232" s="4" t="s">
         <v>245</v>
       </c>
@@ -7316,7 +6710,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:16">
       <c r="A233" s="4" t="s">
         <v>246</v>
       </c>
@@ -7345,7 +6739,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:16">
       <c r="A234" s="4" t="s">
         <v>247</v>
       </c>
@@ -7377,7 +6771,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:16">
       <c r="A235" s="4" t="s">
         <v>248</v>
       </c>
@@ -7462,7 +6856,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:16">
       <c r="A237" s="1" t="s">
         <v>250</v>
       </c>
@@ -7485,7 +6879,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:16">
       <c r="A238" s="1" t="s">
         <v>251</v>
       </c>
@@ -7508,7 +6902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:16">
       <c r="A239" s="1" t="s">
         <v>252</v>
       </c>
@@ -7531,7 +6925,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:16">
       <c r="A240" s="1" t="s">
         <v>253</v>
       </c>
@@ -7554,7 +6948,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:8">
       <c r="A241" s="1" t="s">
         <v>254</v>
       </c>
@@ -7577,7 +6971,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:8">
       <c r="A242" s="1" t="s">
         <v>255</v>
       </c>
@@ -7600,7 +6994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:8">
       <c r="A243" s="1" t="s">
         <v>256</v>
       </c>
@@ -7883,7 +7277,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:8">
       <c r="A254" s="1" t="s">
         <v>267</v>
       </c>
@@ -7906,7 +7300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:8">
       <c r="A255" s="1" t="s">
         <v>267</v>
       </c>
@@ -7929,7 +7323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:8">
       <c r="A256" s="1" t="s">
         <v>267</v>
       </c>
@@ -13633,1029 +13027,1029 @@
         <v>46</v>
       </c>
     </row>
+    <row r="504" spans="1:7">
+      <c r="B504" s="7">
+        <v>5</v>
+      </c>
+      <c r="C504">
+        <v>6</v>
+      </c>
+      <c r="D504">
+        <v>11</v>
+      </c>
+      <c r="E504">
+        <v>14</v>
+      </c>
+      <c r="F504">
+        <v>19</v>
+      </c>
+      <c r="G504">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7">
+      <c r="B505" s="7">
+        <v>8</v>
+      </c>
+      <c r="C505">
+        <v>9</v>
+      </c>
+      <c r="D505">
+        <v>13</v>
+      </c>
+      <c r="E505">
+        <v>20</v>
+      </c>
+      <c r="F505">
+        <v>21</v>
+      </c>
+      <c r="G505">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7">
+      <c r="B506" s="7">
+        <v>1</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+      <c r="D506">
+        <v>7</v>
+      </c>
+      <c r="E506">
+        <v>8</v>
+      </c>
+      <c r="F506">
+        <v>22</v>
+      </c>
+      <c r="G506">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7">
+      <c r="B507" s="7">
+        <v>4</v>
+      </c>
+      <c r="C507">
+        <v>7</v>
+      </c>
+      <c r="D507">
+        <v>8</v>
+      </c>
+      <c r="E507">
+        <v>13</v>
+      </c>
+      <c r="F507">
+        <v>15</v>
+      </c>
+      <c r="G507">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7">
+      <c r="B508" s="7">
+        <v>9</v>
+      </c>
+      <c r="C508">
+        <v>11</v>
+      </c>
+      <c r="D508">
+        <v>12</v>
+      </c>
+      <c r="E508">
+        <v>19</v>
+      </c>
+      <c r="F508">
+        <v>24</v>
+      </c>
+      <c r="G508">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7">
+      <c r="B509" s="7">
+        <v>4</v>
+      </c>
+      <c r="C509">
+        <v>12</v>
+      </c>
+      <c r="D509">
+        <v>16</v>
+      </c>
+      <c r="E509">
+        <v>25</v>
+      </c>
+      <c r="F509">
+        <v>30</v>
+      </c>
+      <c r="G509">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7">
+      <c r="B510" s="7">
+        <v>4</v>
+      </c>
+      <c r="C510">
+        <v>9</v>
+      </c>
+      <c r="D510">
+        <v>17</v>
+      </c>
+      <c r="E510">
+        <v>18</v>
+      </c>
+      <c r="F510">
+        <v>22</v>
+      </c>
+      <c r="G510">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7">
+      <c r="B511" s="7">
+        <v>2</v>
+      </c>
+      <c r="C511">
+        <v>8</v>
+      </c>
+      <c r="D511">
+        <v>11</v>
+      </c>
+      <c r="E511">
+        <v>13</v>
+      </c>
+      <c r="F511">
+        <v>21</v>
+      </c>
+      <c r="G511">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7">
+      <c r="B512" s="7">
+        <v>6</v>
+      </c>
+      <c r="C512">
+        <v>10</v>
+      </c>
+      <c r="D512">
+        <v>13</v>
+      </c>
+      <c r="E512">
+        <v>19</v>
+      </c>
+      <c r="F512">
+        <v>27</v>
+      </c>
+      <c r="G512">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="513" spans="2:7">
+      <c r="B513" s="7">
+        <v>3</v>
+      </c>
+      <c r="C513">
+        <v>9</v>
+      </c>
+      <c r="D513">
+        <v>16</v>
+      </c>
+      <c r="E513">
+        <v>27</v>
+      </c>
+      <c r="F513">
+        <v>28</v>
+      </c>
+      <c r="G513">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="514" spans="2:7">
+      <c r="B514" s="7">
+        <v>1</v>
+      </c>
+      <c r="C514">
+        <v>5</v>
+      </c>
+      <c r="D514">
+        <v>6</v>
+      </c>
+      <c r="E514">
+        <v>8</v>
+      </c>
+      <c r="F514">
+        <v>15</v>
+      </c>
+      <c r="G514">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="515" spans="2:7">
+      <c r="B515" s="7">
+        <v>1</v>
+      </c>
+      <c r="C515">
+        <v>3</v>
+      </c>
+      <c r="D515">
+        <v>7</v>
+      </c>
+      <c r="E515">
+        <v>18</v>
+      </c>
+      <c r="F515">
+        <v>19</v>
+      </c>
+      <c r="G515">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="516" spans="2:7">
+      <c r="B516" s="7">
+        <v>8</v>
+      </c>
+      <c r="C516">
+        <v>10</v>
+      </c>
+      <c r="D516">
+        <v>18</v>
+      </c>
+      <c r="E516">
+        <v>25</v>
+      </c>
+      <c r="F516">
+        <v>27</v>
+      </c>
+      <c r="G516">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="517" spans="2:7">
+      <c r="B517" s="7">
+        <v>2</v>
+      </c>
+      <c r="C517">
+        <v>5</v>
+      </c>
+      <c r="D517">
+        <v>8</v>
+      </c>
+      <c r="E517">
+        <v>13</v>
+      </c>
+      <c r="F517">
+        <v>23</v>
+      </c>
+      <c r="G517">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="518" spans="2:7">
+      <c r="B518" s="7">
+        <v>1</v>
+      </c>
+      <c r="C518">
+        <v>7</v>
+      </c>
+      <c r="D518">
+        <v>10</v>
+      </c>
+      <c r="E518">
+        <v>11</v>
+      </c>
+      <c r="F518">
+        <v>14</v>
+      </c>
+      <c r="G518">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="519" spans="2:7">
+      <c r="B519" s="7">
+        <v>1</v>
+      </c>
+      <c r="C519">
+        <v>5</v>
+      </c>
+      <c r="D519">
+        <v>8</v>
+      </c>
+      <c r="E519">
+        <v>21</v>
+      </c>
+      <c r="F519">
+        <v>25</v>
+      </c>
+      <c r="G519">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="520" spans="2:7">
+      <c r="B520" s="7">
+        <v>14</v>
+      </c>
+      <c r="C520">
+        <v>15</v>
+      </c>
+      <c r="D520">
+        <v>18</v>
+      </c>
+      <c r="E520">
+        <v>20</v>
+      </c>
+      <c r="F520">
+        <v>27</v>
+      </c>
+      <c r="G520">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="521" spans="2:7">
+      <c r="B521" s="7">
+        <v>2</v>
+      </c>
+      <c r="C521">
+        <v>8</v>
+      </c>
+      <c r="D521">
+        <v>9</v>
+      </c>
+      <c r="E521">
+        <v>12</v>
+      </c>
+      <c r="F521">
+        <v>13</v>
+      </c>
+      <c r="G521">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="522" spans="2:7">
+      <c r="B522" s="7">
+        <v>1</v>
+      </c>
+      <c r="C522">
+        <v>3</v>
+      </c>
+      <c r="D522">
+        <v>9</v>
+      </c>
+      <c r="E522">
+        <v>17</v>
+      </c>
+      <c r="F522">
+        <v>18</v>
+      </c>
+      <c r="G522">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="523" spans="2:7">
+      <c r="B523" s="7">
+        <v>1</v>
+      </c>
+      <c r="C523">
+        <v>12</v>
+      </c>
+      <c r="D523">
+        <v>15</v>
+      </c>
+      <c r="E523">
+        <v>30</v>
+      </c>
+      <c r="F523">
+        <v>33</v>
+      </c>
+      <c r="G523">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="524" spans="2:7">
+      <c r="B524" s="7">
+        <v>2</v>
+      </c>
+      <c r="C524">
+        <v>10</v>
+      </c>
+      <c r="D524">
+        <v>21</v>
+      </c>
+      <c r="E524">
+        <v>22</v>
+      </c>
+      <c r="F524">
+        <v>27</v>
+      </c>
+      <c r="G524">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="525" spans="2:7">
+      <c r="B525" s="7">
+        <v>1</v>
+      </c>
+      <c r="C525">
+        <v>2</v>
+      </c>
+      <c r="D525">
+        <v>4</v>
+      </c>
+      <c r="E525">
+        <v>15</v>
+      </c>
+      <c r="F525">
+        <v>24</v>
+      </c>
+      <c r="G525">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="526" spans="2:7">
+      <c r="B526" s="7">
+        <v>2</v>
+      </c>
+      <c r="C526">
+        <v>8</v>
+      </c>
+      <c r="D526">
+        <v>11</v>
+      </c>
+      <c r="E526">
+        <v>23</v>
+      </c>
+      <c r="F526">
+        <v>24</v>
+      </c>
+      <c r="G526">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="527" spans="2:7">
+      <c r="B527" s="7">
+        <v>3</v>
+      </c>
+      <c r="C527">
+        <v>10</v>
+      </c>
+      <c r="D527">
+        <v>14</v>
+      </c>
+      <c r="E527">
+        <v>15</v>
+      </c>
+      <c r="F527">
+        <v>21</v>
+      </c>
+      <c r="G527">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="528" spans="2:7">
+      <c r="B528" s="7">
+        <v>3</v>
+      </c>
+      <c r="C528">
+        <v>7</v>
+      </c>
+      <c r="D528">
+        <v>11</v>
+      </c>
+      <c r="E528">
+        <v>14</v>
+      </c>
+      <c r="F528">
+        <v>17</v>
+      </c>
+      <c r="G528">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="530" spans="2:7">
+      <c r="B530" s="7"/>
+    </row>
+    <row r="531" spans="2:7">
+      <c r="B531" s="7">
+        <v>36</v>
+      </c>
+      <c r="C531">
+        <v>46</v>
+      </c>
+      <c r="D531">
+        <v>48</v>
+      </c>
+      <c r="E531">
+        <v>49</v>
+      </c>
+      <c r="F531">
+        <v>50</v>
+      </c>
+      <c r="G531">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="532" spans="2:7">
+      <c r="B532" s="7">
+        <v>33</v>
+      </c>
+      <c r="C532">
+        <v>34</v>
+      </c>
+      <c r="D532">
+        <v>37</v>
+      </c>
+      <c r="E532">
+        <v>42</v>
+      </c>
+      <c r="F532">
+        <v>52</v>
+      </c>
+      <c r="G532">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="533" spans="2:7">
+      <c r="B533" s="7">
+        <v>32</v>
+      </c>
+      <c r="C533">
+        <v>38</v>
+      </c>
+      <c r="D533">
+        <v>42</v>
+      </c>
+      <c r="E533">
+        <v>52</v>
+      </c>
+      <c r="F533">
+        <v>57</v>
+      </c>
+      <c r="G533">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="534" spans="2:7">
+      <c r="B534" s="7">
+        <v>34</v>
+      </c>
+      <c r="C534">
+        <v>36</v>
+      </c>
+      <c r="D534">
+        <v>40</v>
+      </c>
+      <c r="E534">
+        <v>41</v>
+      </c>
+      <c r="F534">
+        <v>46</v>
+      </c>
+      <c r="G534">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="535" spans="2:7">
+      <c r="B535" s="7">
+        <v>34</v>
+      </c>
+      <c r="C535">
+        <v>35</v>
+      </c>
+      <c r="D535">
+        <v>38</v>
+      </c>
+      <c r="E535">
+        <v>46</v>
+      </c>
+      <c r="F535">
+        <v>47</v>
+      </c>
+      <c r="G535">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="536" spans="2:7">
+      <c r="B536" s="7">
+        <v>36</v>
+      </c>
+      <c r="C536">
+        <v>39</v>
+      </c>
+      <c r="D536">
+        <v>44</v>
+      </c>
+      <c r="E536">
+        <v>50</v>
+      </c>
+      <c r="F536">
+        <v>52</v>
+      </c>
+      <c r="G536">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="537" spans="2:7">
+      <c r="B537" s="7">
+        <v>33</v>
+      </c>
+      <c r="C537">
+        <v>41</v>
+      </c>
+      <c r="D537">
+        <v>46</v>
+      </c>
+      <c r="E537">
+        <v>53</v>
+      </c>
+      <c r="F537">
+        <v>56</v>
+      </c>
+      <c r="G537">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="538" spans="2:7">
+      <c r="B538" s="7">
+        <v>33</v>
+      </c>
+      <c r="C538">
+        <v>37</v>
+      </c>
+      <c r="D538">
+        <v>41</v>
+      </c>
+      <c r="E538">
+        <v>47</v>
+      </c>
+      <c r="F538">
+        <v>53</v>
+      </c>
+      <c r="G538">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="539" spans="2:7">
+      <c r="B539" s="7">
+        <v>32</v>
+      </c>
+      <c r="C539">
+        <v>37</v>
+      </c>
+      <c r="D539">
+        <v>46</v>
+      </c>
+      <c r="E539">
+        <v>50</v>
+      </c>
+      <c r="F539">
+        <v>53</v>
+      </c>
+      <c r="G539">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="540" spans="2:7">
+      <c r="B540" s="7">
+        <v>31</v>
+      </c>
+      <c r="C540">
+        <v>38</v>
+      </c>
+      <c r="D540">
+        <v>40</v>
+      </c>
+      <c r="E540">
+        <v>41</v>
+      </c>
+      <c r="F540">
+        <v>44</v>
+      </c>
+      <c r="G540">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="541" spans="2:7">
+      <c r="B541" s="7">
+        <v>31</v>
+      </c>
+      <c r="C541">
+        <v>38</v>
+      </c>
+      <c r="D541">
+        <v>42</v>
+      </c>
+      <c r="E541">
+        <v>43</v>
+      </c>
+      <c r="F541">
+        <v>53</v>
+      </c>
+      <c r="G541">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="542" spans="2:7">
+      <c r="B542" s="7">
+        <v>31</v>
+      </c>
+      <c r="C542">
+        <v>36</v>
+      </c>
+      <c r="D542">
+        <v>40</v>
+      </c>
+      <c r="E542">
+        <v>43</v>
+      </c>
+      <c r="F542">
+        <v>46</v>
+      </c>
+      <c r="G542">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="543" spans="2:7">
+      <c r="B543" s="7">
+        <v>35</v>
+      </c>
+      <c r="C543">
+        <v>43</v>
+      </c>
+      <c r="D543">
+        <v>49</v>
+      </c>
+      <c r="E543">
+        <v>51</v>
+      </c>
+      <c r="F543">
+        <v>56</v>
+      </c>
+      <c r="G543">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="544" spans="2:7">
+      <c r="B544" s="7">
+        <v>32</v>
+      </c>
+      <c r="C544">
+        <v>33</v>
+      </c>
+      <c r="D544">
+        <v>44</v>
+      </c>
+      <c r="E544">
+        <v>52</v>
+      </c>
+      <c r="F544">
+        <v>57</v>
+      </c>
+      <c r="G544">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="545" spans="2:7">
+      <c r="B545" s="7">
+        <v>36</v>
+      </c>
+      <c r="C545">
+        <v>40</v>
+      </c>
+      <c r="D545">
+        <v>41</v>
+      </c>
+      <c r="E545">
+        <v>50</v>
+      </c>
+      <c r="F545">
+        <v>52</v>
+      </c>
+      <c r="G545">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="546" spans="2:7">
+      <c r="B546" s="7">
+        <v>33</v>
+      </c>
+      <c r="C546">
+        <v>43</v>
+      </c>
+      <c r="D546">
+        <v>44</v>
+      </c>
+      <c r="E546">
+        <v>45</v>
+      </c>
+      <c r="F546">
+        <v>47</v>
+      </c>
+      <c r="G546">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="547" spans="2:7">
+      <c r="B547" s="7">
+        <v>34</v>
+      </c>
+      <c r="C547">
+        <v>36</v>
+      </c>
+      <c r="D547">
+        <v>38</v>
+      </c>
+      <c r="E547">
+        <v>39</v>
+      </c>
+      <c r="F547">
+        <v>43</v>
+      </c>
+      <c r="G547">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="548" spans="2:7">
+      <c r="B548" s="7">
+        <v>43</v>
+      </c>
+      <c r="C548">
+        <v>45</v>
+      </c>
+      <c r="D548">
+        <v>48</v>
+      </c>
+      <c r="E548">
+        <v>50</v>
+      </c>
+      <c r="F548">
+        <v>51</v>
+      </c>
+      <c r="G548">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="549" spans="2:7">
+      <c r="B549" s="7">
+        <v>40</v>
+      </c>
+      <c r="C549">
+        <v>41</v>
+      </c>
+      <c r="D549">
+        <v>46</v>
+      </c>
+      <c r="E549">
+        <v>49</v>
+      </c>
+      <c r="F549">
+        <v>56</v>
+      </c>
+      <c r="G549">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="550" spans="2:7">
+      <c r="B550" s="7">
+        <v>32</v>
+      </c>
+      <c r="C550">
+        <v>33</v>
+      </c>
+      <c r="D550">
+        <v>36</v>
+      </c>
+      <c r="E550">
+        <v>40</v>
+      </c>
+      <c r="F550">
+        <v>51</v>
+      </c>
+      <c r="G550">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="551" spans="2:7">
+      <c r="B551" s="7">
+        <v>31</v>
+      </c>
+      <c r="C551">
+        <v>34</v>
+      </c>
+      <c r="D551">
+        <v>35</v>
+      </c>
+      <c r="E551">
+        <v>41</v>
+      </c>
+      <c r="F551">
+        <v>52</v>
+      </c>
+      <c r="G551">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="552" spans="2:7">
+      <c r="B552" s="7">
+        <v>34</v>
+      </c>
+      <c r="C552">
+        <v>38</v>
+      </c>
+      <c r="D552">
+        <v>40</v>
+      </c>
+      <c r="E552">
+        <v>41</v>
+      </c>
+      <c r="F552">
+        <v>44</v>
+      </c>
+      <c r="G552">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="553" spans="2:7">
+      <c r="B553" s="7">
+        <v>32</v>
+      </c>
+      <c r="C553">
+        <v>40</v>
+      </c>
+      <c r="D553">
+        <v>42</v>
+      </c>
+      <c r="E553">
+        <v>47</v>
+      </c>
+      <c r="F553">
+        <v>52</v>
+      </c>
+      <c r="G553">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="554" spans="2:7">
+      <c r="B554" s="7">
+        <v>34</v>
+      </c>
+      <c r="C554">
+        <v>42</v>
+      </c>
+      <c r="D554">
+        <v>45</v>
+      </c>
+      <c r="E554">
+        <v>53</v>
+      </c>
+      <c r="F554">
+        <v>55</v>
+      </c>
+      <c r="G554">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="555" spans="2:7">
+      <c r="B555" s="7">
+        <v>39</v>
+      </c>
+      <c r="C555">
+        <v>45</v>
+      </c>
+      <c r="D555">
+        <v>48</v>
+      </c>
+      <c r="E555">
+        <v>53</v>
+      </c>
+      <c r="F555">
+        <v>54</v>
+      </c>
+      <c r="G555">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F50" sqref="A1:F50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1">
-        <v>5</v>
-      </c>
-      <c r="B1">
-        <v>6</v>
-      </c>
-      <c r="C1">
-        <v>11</v>
-      </c>
-      <c r="D1">
-        <v>11</v>
-      </c>
-      <c r="E1">
-        <v>19</v>
-      </c>
-      <c r="F1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>22</v>
-      </c>
-      <c r="F7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>27</v>
-      </c>
-      <c r="F9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>28</v>
-      </c>
-      <c r="F10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>19</v>
-      </c>
-      <c r="F12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>27</v>
-      </c>
-      <c r="F13">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>23</v>
-      </c>
-      <c r="F14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>25</v>
-      </c>
-      <c r="F16">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>27</v>
-      </c>
-      <c r="F17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>13</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>22</v>
-      </c>
-      <c r="E21">
-        <v>27</v>
-      </c>
-      <c r="F21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <v>24</v>
-      </c>
-      <c r="F22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>24</v>
-      </c>
-      <c r="F23">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>14</v>
-      </c>
-      <c r="D24">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>21</v>
-      </c>
-      <c r="F24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>14</v>
-      </c>
-      <c r="E25">
-        <v>17</v>
-      </c>
-      <c r="F25">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>36</v>
-      </c>
-      <c r="B26">
-        <v>46</v>
-      </c>
-      <c r="C26">
-        <v>48</v>
-      </c>
-      <c r="D26">
-        <v>49</v>
-      </c>
-      <c r="E26">
-        <v>50</v>
-      </c>
-      <c r="F26">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>33</v>
-      </c>
-      <c r="B27">
-        <v>34</v>
-      </c>
-      <c r="C27">
-        <v>37</v>
-      </c>
-      <c r="D27">
-        <v>42</v>
-      </c>
-      <c r="E27">
-        <v>42</v>
-      </c>
-      <c r="F27">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>42</v>
-      </c>
-      <c r="C28">
-        <v>42</v>
-      </c>
-      <c r="D28">
-        <v>52</v>
-      </c>
-      <c r="E28">
-        <v>57</v>
-      </c>
-      <c r="F28">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>36</v>
-      </c>
-      <c r="C29">
-        <v>40</v>
-      </c>
-      <c r="D29">
-        <v>40</v>
-      </c>
-      <c r="E29">
-        <v>41</v>
-      </c>
-      <c r="F29">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>34</v>
-      </c>
-      <c r="B30">
-        <v>35</v>
-      </c>
-      <c r="C30">
-        <v>38</v>
-      </c>
-      <c r="D30">
-        <v>46</v>
-      </c>
-      <c r="E30">
-        <v>47</v>
-      </c>
-      <c r="F30">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>39</v>
-      </c>
-      <c r="C31">
-        <v>44</v>
-      </c>
-      <c r="D31">
-        <v>44</v>
-      </c>
-      <c r="E31">
-        <v>50</v>
-      </c>
-      <c r="F31">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>41</v>
-      </c>
-      <c r="B32">
-        <v>46</v>
-      </c>
-      <c r="C32">
-        <v>53</v>
-      </c>
-      <c r="D32">
-        <v>53</v>
-      </c>
-      <c r="E32">
-        <v>56</v>
-      </c>
-      <c r="F32">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>37</v>
-      </c>
-      <c r="C33">
-        <v>41</v>
-      </c>
-      <c r="D33">
-        <v>47</v>
-      </c>
-      <c r="E33">
-        <v>53</v>
-      </c>
-      <c r="F33">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>37</v>
-      </c>
-      <c r="C34">
-        <v>46</v>
-      </c>
-      <c r="D34">
-        <v>50</v>
-      </c>
-      <c r="E34">
-        <v>53</v>
-      </c>
-      <c r="F34">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>31</v>
-      </c>
-      <c r="B35">
-        <v>38</v>
-      </c>
-      <c r="C35">
-        <v>40</v>
-      </c>
-      <c r="D35">
-        <v>41</v>
-      </c>
-      <c r="E35">
-        <v>44</v>
-      </c>
-      <c r="F35">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>31</v>
-      </c>
-      <c r="B36">
-        <v>31</v>
-      </c>
-      <c r="C36">
-        <v>42</v>
-      </c>
-      <c r="D36">
-        <v>43</v>
-      </c>
-      <c r="E36">
-        <v>57</v>
-      </c>
-      <c r="F36">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <v>40</v>
-      </c>
-      <c r="D37">
-        <v>43</v>
-      </c>
-      <c r="E37">
-        <v>46</v>
-      </c>
-      <c r="F37">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>49</v>
-      </c>
-      <c r="C38">
-        <v>49</v>
-      </c>
-      <c r="D38">
-        <v>51</v>
-      </c>
-      <c r="E38">
-        <v>56</v>
-      </c>
-      <c r="F38">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>32</v>
-      </c>
-      <c r="B39">
-        <v>33</v>
-      </c>
-      <c r="C39">
-        <v>44</v>
-      </c>
-      <c r="D39">
-        <v>52</v>
-      </c>
-      <c r="E39">
-        <v>57</v>
-      </c>
-      <c r="F39">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>36</v>
-      </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40">
-        <v>41</v>
-      </c>
-      <c r="D40">
-        <v>50</v>
-      </c>
-      <c r="E40">
-        <v>52</v>
-      </c>
-      <c r="F40">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>33</v>
-      </c>
-      <c r="B41">
-        <v>43</v>
-      </c>
-      <c r="C41">
-        <v>44</v>
-      </c>
-      <c r="D41">
-        <v>45</v>
-      </c>
-      <c r="E41">
-        <v>47</v>
-      </c>
-      <c r="F41">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>34</v>
-      </c>
-      <c r="B42">
-        <v>36</v>
-      </c>
-      <c r="C42">
-        <v>38</v>
-      </c>
-      <c r="D42">
-        <v>39</v>
-      </c>
-      <c r="E42">
-        <v>43</v>
-      </c>
-      <c r="F42">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>45</v>
-      </c>
-      <c r="C43">
-        <v>48</v>
-      </c>
-      <c r="D43">
-        <v>50</v>
-      </c>
-      <c r="E43">
-        <v>51</v>
-      </c>
-      <c r="F43">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>40</v>
-      </c>
-      <c r="B44">
-        <v>41</v>
-      </c>
-      <c r="C44">
-        <v>46</v>
-      </c>
-      <c r="D44">
-        <v>49</v>
-      </c>
-      <c r="E44">
-        <v>56</v>
-      </c>
-      <c r="F44">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>32</v>
-      </c>
-      <c r="B45">
-        <v>33</v>
-      </c>
-      <c r="C45">
-        <v>36</v>
-      </c>
-      <c r="D45">
-        <v>40</v>
-      </c>
-      <c r="E45">
-        <v>51</v>
-      </c>
-      <c r="F45">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>31</v>
-      </c>
-      <c r="B46">
-        <v>34</v>
-      </c>
-      <c r="C46">
-        <v>35</v>
-      </c>
-      <c r="D46">
-        <v>41</v>
-      </c>
-      <c r="E46">
-        <v>52</v>
-      </c>
-      <c r="F46">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>34</v>
-      </c>
-      <c r="B47">
-        <v>38</v>
-      </c>
-      <c r="C47">
-        <v>40</v>
-      </c>
-      <c r="D47">
-        <v>41</v>
-      </c>
-      <c r="E47">
-        <v>44</v>
-      </c>
-      <c r="F47">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>32</v>
-      </c>
-      <c r="B48">
-        <v>40</v>
-      </c>
-      <c r="C48">
-        <v>42</v>
-      </c>
-      <c r="D48">
-        <v>52</v>
-      </c>
-      <c r="E48">
-        <v>52</v>
-      </c>
-      <c r="F48">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>34</v>
-      </c>
-      <c r="B49">
-        <v>42</v>
-      </c>
-      <c r="C49">
-        <v>45</v>
-      </c>
-      <c r="D49">
-        <v>53</v>
-      </c>
-      <c r="E49">
-        <v>55</v>
-      </c>
-      <c r="F49">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>39</v>
-      </c>
-      <c r="B50">
-        <v>45</v>
-      </c>
-      <c r="C50">
-        <v>48</v>
-      </c>
-      <c r="D50">
-        <v>53</v>
-      </c>
-      <c r="E50">
-        <v>54</v>
-      </c>
-      <c r="F50">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>